--- a/peercheck/FragenFormat.xlsx
+++ b/peercheck/FragenFormat.xlsx
@@ -564,7 +564,7 @@
     <t>versichOK_BU</t>
   </si>
   <si>
-    <t>Sind sie mit dem Versicherungsträger zufrieden?</t>
+    <t>Wie zufrieden bist du mit dem Versicherungsträger deiner Berufsunfähigkeitsversicherung?</t>
   </si>
   <si>
     <t>BU Versicherungsträger ok?</t>
@@ -648,1897 +648,1876 @@
     <t>staatlicheRente_BU</t>
   </si>
   <si>
-    <t>Erhalten Sie eine staatliche Rente?</t>
+    <t>Wie zufrieden bist Du mit deiner Rente?</t>
   </si>
   <si>
     <t>Staatliche Rente?</t>
   </si>
   <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>staatlicheRente_BU</t>
+  </si>
+  <si>
+    <t>abfrageBU</t>
+  </si>
+  <si>
+    <t>("Nein")</t>
+  </si>
+  <si>
+    <t>euroRente</t>
+  </si>
+  <si>
+    <t>Wie hoch sind ihre staatlichen Leistungen </t>
+  </si>
+  <si>
+    <t>Höhe staatliche Rente?</t>
+  </si>
+  <si>
+    <t>euroBeruf</t>
+  </si>
+  <si>
+    <t>staatlicheRente_BU</t>
+  </si>
+  <si>
+    <t>staatlicheRente_BU</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>hoeheRente</t>
+  </si>
+  <si>
+    <t>Ist die Höhe der Rente angemessen?</t>
+  </si>
+  <si>
+    <t>Höhe der Rente angemessen?</t>
+  </si>
+  <si>
+    <t>angemessen</t>
+  </si>
+  <si>
+    <t>staatlicheRente_BU</t>
+  </si>
+  <si>
+    <t>staatlicheRente_BU</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD1</t>
+  </si>
+  <si>
+    <t>Mein Leben entspricht in den meisten Lebensbereichen meinen Idealvorstellungen.</t>
+  </si>
+  <si>
+    <t>Ist dein Leben ideal?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD2</t>
+  </si>
+  <si>
+    <t>Meine Lebensbedingungen sind ausgezeichnet.</t>
+  </si>
+  <si>
+    <t>Lebensbedingungen ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD2</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD3</t>
+  </si>
+  <si>
+    <t>Ich bin zufrieden mit meinem Leben.</t>
+  </si>
+  <si>
+    <t>Zufrieden mit Leben?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD4</t>
+  </si>
+  <si>
+    <t>Bis jetzt habe ich die wichtigsten Dinge in meinem Leben erreicht.</t>
+  </si>
+  <si>
+    <t>Wichtiges erreicht?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD5</t>
+  </si>
+  <si>
+    <t>Wenn ich mein Leben noch einmal leben könnte, würde ich kaum etwas ändern.</t>
+  </si>
+  <si>
+    <t>Noch einmal so leben?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>lebenszufrieden</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit Deinem Leben?</t>
+  </si>
+  <si>
+    <t>Mit Leben zufrieden?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>lebenszufrieden</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>Wie bist Du Krankenversichert?</t>
+  </si>
+  <si>
+    <t>Krankenversichert?</t>
+  </si>
+  <si>
+    <t>gesetzlichPrivat</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>krank2</t>
+  </si>
+  <si>
+    <t>Dein Krankenversicherungsbeitrag ist</t>
+  </si>
+  <si>
+    <t>Krankenversicherungbeitrag ok?</t>
+  </si>
+  <si>
+    <t>angemessen</t>
+  </si>
+  <si>
+    <t>krankVL2</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>("privat", "gesetzlich")</t>
+  </si>
+  <si>
+    <t>krankVL</t>
+  </si>
+  <si>
+    <t>Die Vorsorgeleistungen meiner Krankenkasse sind mir</t>
+  </si>
+  <si>
+    <t>Vorsorge wichtig?</t>
+  </si>
+  <si>
+    <t>wichtig</t>
+  </si>
+  <si>
+    <t>krankVL2</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>("privat", "gesetzlich")</t>
+  </si>
+  <si>
+    <t>krankVL2</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit den Vorsorgeleistungen Deiner Krankenkasse?</t>
+  </si>
+  <si>
+    <t>Zufrieden mit Vorsorge?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>krankVL2</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>("privat", "gesetzlich")</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>Wie alt bist Du?</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>Bist du ein Mann oder eine Frau?</t>
+  </si>
+  <si>
+    <t>Mann oder Frau</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>beziehung</t>
+  </si>
+  <si>
+    <t>Wie würdest Du deinen Beziehungsstatus am ehesten beschreiben?</t>
+  </si>
+  <si>
+    <t>Beziehungsstatus</t>
+  </si>
+  <si>
+    <t>beziehungsstatus</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>urlaubjanein</t>
+  </si>
+  <si>
+    <t>Hast du schon einmal länger als 1 Woche Urlaub gemacht?</t>
+  </si>
+  <si>
+    <t>Urlaub?</t>
+  </si>
+  <si>
     <t>jaNein</t>
   </si>
   <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit deinem Urlaub?</t>
+  </si>
+  <si>
+    <t>Urlaub?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>urlaubjanein</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>urlaub1</t>
+  </si>
+  <si>
+    <t>Wann war dein letzter Urlaub?</t>
+  </si>
+  <si>
+    <t>Wann letzter Urlaub?</t>
+  </si>
+  <si>
+    <t>vorMonaten</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>urlaub2</t>
+  </si>
+  <si>
+    <t>Wie oft warst Du in den letzten 12 Monaten im Urlaub?</t>
+  </si>
+  <si>
+    <t>Wie oft Urlaub?</t>
+  </si>
+  <si>
+    <t>anzUrlaub</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>urlaub3</t>
+  </si>
+  <si>
+    <t>Wie weit war der weiteste Urlaub in den letzten 12 Monaten?</t>
+  </si>
+  <si>
+    <t>Wo Urlaub?</t>
+  </si>
+  <si>
+    <t>woUrlaub</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>wetter</t>
+  </si>
+  <si>
+    <t>Wie ist gerade das Wetter</t>
+  </si>
+  <si>
+    <t>Wetter</t>
+  </si>
+  <si>
+    <t>wetter</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Hast Du ein Auto?</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>autoMarke</t>
+  </si>
+  <si>
+    <t>Was für ein Auto fährst Du?</t>
+  </si>
+  <si>
+    <t>Automarke</t>
+  </si>
+  <si>
+    <t>autoMarke</t>
+  </si>
+  <si>
+    <t>autoZufriedenheit</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>autoAlter</t>
+  </si>
+  <si>
+    <t>Wie alt ist das Auto?</t>
+  </si>
+  <si>
+    <t>Alter Auto</t>
+  </si>
+  <si>
+    <t>autoAlter</t>
+  </si>
+  <si>
+    <t>autoZufriedenheit</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>autoZufriedenheit</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit dem Auto?</t>
+  </si>
+  <si>
+    <t>Zufriedenheit mit Auto</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>autoZufriedenheit</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>Hast Du ein Smartphone?</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphoneHerst</t>
+  </si>
+  <si>
+    <t>Wer ist der Hersteller deines Smartphones?</t>
+  </si>
+  <si>
+    <t>Smartphone Hersteller</t>
+  </si>
+  <si>
+    <t>smartphoneHerst</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit Deinem Smartphone?</t>
+  </si>
+  <si>
+    <t>Smartphone Zufriedenheit</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>postleitzahl</t>
+  </si>
+  <si>
+    <t>In welchem Postleitzahlengebiet wohnst Du?</t>
+  </si>
+  <si>
+    <t>Postleitzahl</t>
+  </si>
+  <si>
+    <t>postleitzahl</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>stadtLand</t>
+  </si>
+  <si>
+    <t>Wie groß ist der Ort, in dem Du wohnst?</t>
+  </si>
+  <si>
+    <t>Größe des Wohnortes?</t>
+  </si>
+  <si>
+    <t>stadtLand</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist du mit deiner Fitness?</t>
+  </si>
+  <si>
+    <t>Fitness ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>Treibst du Sport?</t>
+  </si>
+  <si>
+    <t>Treibst du Sport?</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport_wieoft</t>
+  </si>
+  <si>
+    <t>Wie oft bist du sportlich unterwegs?</t>
+  </si>
+  <si>
+    <t>Sport - wie oft?</t>
+  </si>
+  <si>
+    <t>wieoftSport</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>sport_warum</t>
+  </si>
+  <si>
+    <t>Warum treibst du Sport?</t>
+  </si>
+  <si>
+    <t>Sport - warum?</t>
+  </si>
+  <si>
+    <t>warumSport</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>freizeitwichtig</t>
+  </si>
+  <si>
+    <t>Wie wichtig ist dir Freizeit?</t>
+  </si>
+  <si>
+    <t>Ist Freizeit wichtig?</t>
+  </si>
+  <si>
+    <t>wichtig</t>
+  </si>
+  <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>freizeittyp</t>
+  </si>
+  <si>
+    <t>Welchen Begriff verbindest du am ehesten mit Freizeit?</t>
+  </si>
+  <si>
+    <t>Was ist Freizeit für dich?</t>
+  </si>
+  <si>
+    <t>freizeittyp</t>
+  </si>
+  <si>
+    <t>freizeitzufrieden</t>
+  </si>
+  <si>
+    <t>freiraum</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist du mit deinem Anteil an Freiraum?</t>
+  </si>
+  <si>
+    <t>Anteil Freiraum?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>freizeitmitwem</t>
+  </si>
+  <si>
+    <t>Mit wem verbringst du deine Freizeit am ehesten?</t>
+  </si>
+  <si>
+    <t>Mit wem teilst du Freizeit?</t>
+  </si>
+  <si>
+    <t>teilenmitwem</t>
+  </si>
+  <si>
+    <t>freizeitzufrieden</t>
+  </si>
+  <si>
+    <t>glaubensgemeinschaft</t>
+  </si>
+  <si>
+    <t>Gehörst du einer Glaubensgemeinschaft an?</t>
+  </si>
+  <si>
+    <t>Teil einer Glaubensgemeinschaft?</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>glaube</t>
+  </si>
+  <si>
+    <t>glaubebanwas</t>
+  </si>
+  <si>
+    <t>Glaubst du an...?</t>
+  </si>
+  <si>
+    <t>Glaubst du an etwas/jemanden?</t>
+  </si>
+  <si>
+    <t>anwasglauben</t>
+  </si>
+  <si>
+    <t>glaube</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>Wie ist Deine Stimmung?</t>
+  </si>
+  <si>
+    <t>Stimmung?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>familiewichtig</t>
+  </si>
+  <si>
+    <t>Ist Familie für dich ein Thema?</t>
+  </si>
+  <si>
+    <t>Ist Familie ein Thema?</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist du mit deinem Familienleben?</t>
+  </si>
+  <si>
+    <t>Familienleben ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>familiewichtig</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>größe</t>
+  </si>
+  <si>
+    <t>Wie groß bist du?</t>
+  </si>
+  <si>
+    <t>Größe?</t>
+  </si>
+  <si>
+    <t>groesse</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>gewicht</t>
+  </si>
+  <si>
+    <t>Wieviel wiegst du in etwa?</t>
+  </si>
+  <si>
+    <t>Gewicht?</t>
+  </si>
+  <si>
+    <t>gewicht</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>ernaehrung</t>
+  </si>
+  <si>
+    <t>Wie ernährst du dich überwiegend?</t>
+  </si>
+  <si>
+    <t>Ernährung?</t>
+  </si>
+  <si>
+    <t>ernaehrungstype</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport_wielange</t>
+  </si>
+  <si>
+    <t>Wie lange treibst du schon Sport?</t>
+  </si>
+  <si>
+    <t>Sport-wie lange?</t>
+  </si>
+  <si>
+    <t>dauerBeruf</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>Bist du mit deiner Partnerschaft zufrieden?</t>
+  </si>
+  <si>
+    <t>Partnerschaft ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>dauer_partnerschaft</t>
+  </si>
+  <si>
+    <t>Wie lange bist du schon mit deinem Partner zusammen?</t>
+  </si>
+  <si>
+    <t>Dauer Partnerschaft?</t>
+  </si>
+  <si>
+    <t>dauerPartnerschaft</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>wieoftsex</t>
+  </si>
+  <si>
+    <t>Wie oft hattest du letzte Woche Sex?</t>
+  </si>
+  <si>
+    <t>Wie oft Sex?</t>
+  </si>
+  <si>
+    <t>wieoftSex</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>aufteilHaushalt</t>
+  </si>
+  <si>
+    <t>Wie wird die Hausarbeit aufgeteilt?</t>
+  </si>
+  <si>
+    <t>Aufteilung Hausarbeit?</t>
+  </si>
+  <si>
+    <t>aufteilHaushalt</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>zufHaftpflicht</t>
+  </si>
+  <si>
+    <t>Wie zufrieden bist Du mit den Leistungen deiner Haftpflichtversicherung</t>
+  </si>
+  <si>
+    <t>Haftpflicht ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>Haftpflicht</t>
+  </si>
+  <si>
+    <t>abschlusstypHaftpflicht</t>
+  </si>
+  <si>
+    <t>Welchen Typ  von Haftplichtversicherung hast du abgeschlossen?</t>
+  </si>
+  <si>
+    <t>Versicherungstyp?</t>
+  </si>
+  <si>
+    <t>haftpflichtyp</t>
+  </si>
+  <si>
+    <t>Haftpflicht</t>
+  </si>
+  <si>
+    <t>euroHaftpflicht</t>
+  </si>
+  <si>
+    <t>Wie hoch ist dein Beitrag?</t>
+  </si>
+  <si>
+    <t>Beitragshöhe?</t>
+  </si>
+  <si>
+    <t>beitragversicherung</t>
+  </si>
+  <si>
+    <t>Haftpflicht</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>Hast du den Schaden gemeldet?</t>
+  </si>
+  <si>
+    <t>Schaden gemeldet?</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>Haftpflicht</t>
+  </si>
+  <si>
+    <t>schadenabwicklung</t>
+  </si>
+  <si>
+    <t>Lief die Schadenabwicklung zu deiner Zufriedenheit?</t>
+  </si>
+  <si>
+    <t>Schadenabwicklung ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>Schadenabwicklung</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>euroSchaden</t>
+  </si>
+  <si>
+    <t>Wie hoch war der letzte Schadenfall?</t>
+  </si>
+  <si>
+    <t>Schadenhöhe?</t>
+  </si>
+  <si>
+    <t>eurohoeheschaden</t>
+  </si>
+  <si>
+    <t>Schadenabwicklung</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>versicherung</t>
+  </si>
+  <si>
+    <t>Bei welcher Versicherung bist du?</t>
+  </si>
+  <si>
+    <t>Name der Versicherung? </t>
+  </si>
+  <si>
+    <t>haftpflichtanbieter</t>
+  </si>
+  <si>
+    <t>Schadenabwicklung</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>mitgliedversicherung</t>
+  </si>
+  <si>
+    <t>Bist du noch bei dieser Versicherung?</t>
+  </si>
+  <si>
+    <t>Versicherung noch ok?</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>Schadenabwicklung</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>smartphoneBetriebssys</t>
+  </si>
+  <si>
+    <t>Welches Betriebssystem hat dein Smartphone</t>
+  </si>
+  <si>
+    <t>Betriebssystem Smartphone?</t>
+  </si>
+  <si>
+    <t>smartphonebetriebssys</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>smartphoneAlter</t>
+  </si>
+  <si>
+    <t>Wie alt ist dein Smartphone?</t>
+  </si>
+  <si>
+    <t>Alter Smartphone?</t>
+  </si>
+  <si>
+    <t>smartphonealter</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>("Ja")</t>
+  </si>
+  <si>
+    <t>smartphoneGroesse</t>
+  </si>
+  <si>
+    <t>Wie groß ist ihr Smartphone?</t>
+  </si>
+  <si>
+    <t>Größe Smartphone?</t>
+  </si>
+  <si>
+    <t>smartphonegroess</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>abfrageHaus</t>
+  </si>
+  <si>
+    <t>Wie lebst du?</t>
+  </si>
+  <si>
+    <t>Wie lebst du?</t>
+  </si>
+  <si>
+    <t>abfragehaus</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>freizeitzufrieden</t>
+  </si>
+  <si>
+    <t>Bist du mit dem, wie du deine Freizeit gestaltest, zufrieden?</t>
+  </si>
+  <si>
+    <t>Freizeit ok?</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>freizeitzufrieden</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>jaNein</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Ja", "Nein")</t>
+  </si>
+  <si>
+    <t>wichtig</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("sehr wichtig", "wichtig", "unwichtig", "sehr unwichtig")</t>
+  </si>
+  <si>
+    <t>angemessen</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("zu hoch", "angemessen", "zu niedrig")</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("sehr unzufrieden", "unzufrieden", "zufrieden", "sehr zufrieden")</t>
+  </si>
+  <si>
+    <t>anzKinder</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("keines", "1", "2", "3", "4 oder mehr")</t>
+  </si>
+  <si>
+    <t>alterKinder</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 2", "3 bis 5", "6 bis 11", "12 bis 17", "18 oder älter")</t>
+  </si>
+  <si>
+    <t>dauerBeruf</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 2", "3 bis 5", "6 bis 10", "11 bis 15", "16 bis 20", "mehr als 21")</t>
+  </si>
+  <si>
+    <t>teilzeitBeruf</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Vollzeit", "Teilzeit")</t>
+  </si>
+  <si>
+    <t>artBeruf</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("angestellt", "freiberuflich", "beides")</t>
+  </si>
+  <si>
+    <t>dauerStudium</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 4", "5 bis 10", "mehr als 10")</t>
+  </si>
+  <si>
+    <t>statusBeschaeftigung</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Beruf", "Studium", "Erziehungszeit", "keine Beschäftigung", "Sonstige")</t>
+  </si>
+  <si>
+    <t>euroBeruf</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 450 ", "451 bis 1000", "1000 bis 2000", "2000 bis 3000", "3000 bis 4000", "4000 -6000", "über 6000")</t>
+  </si>
+  <si>
+    <t>euroEZ</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 500", "501 bis 1000", "1001 bis 1500", "1501 bis 1800")</t>
+  </si>
+  <si>
+    <t>aufteilEZ</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Mutter", "Vater", "beide gemeinsam", "nach einander")</t>
+  </si>
+  <si>
+    <t>gesetzlichPrivat</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("gesetzlich", "privat", "gar nicht")</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("10 bis 19", "20 bis 29", "30 bis 39", "40 bis 49", "50 bis 59", "60 bis 69", "70 bis 79", "80 bis 89")</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Mann", "Frau")</t>
+  </si>
+  <si>
+    <t>beziehungsstatus</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Single", "in einer Beziehung", "verlobt", "verheiratet", "in einer offenen Beziehung", "es ist kompliziert", "getrennt", "geschieden", "verwitwet")</t>
+  </si>
+  <si>
+    <t>stimmt</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Stimme überhaupt nicht überein.", "Stimme nicht überein." , "Stimme eher nicht überein.", "Stimme weder noch überein.", "Stimme etwas überein.", "Stimme überein.", "Stimme vollkommen überein.")</t>
+  </si>
+  <si>
+    <t>giro</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("kleiner als -1000€", "-1000€ bis -100€", "-99€ bis 0€", "1€ bis 99€", "100€ bis 1000€", "mehr als 1000€")</t>
+  </si>
+  <si>
+    <t>dispo</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("weiss nicht", "0", "1€ bis 500€", "501€ bis 5000€", "mehr als 5000€")</t>
+  </si>
+  <si>
+    <t>vorMonaten</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("nie", "vor über einem Jahr", "vor einem Jahr", "vor einem halben Jahr", "vor wenigen Wochen", "vor Kurzem")</t>
+  </si>
+  <si>
+    <t>anzUrlaub</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("keinen", "1", "2", "3", "4 oder mehr")</t>
+  </si>
+  <si>
+    <t>woUrlaub</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Deutschland", "Nahstrecke", "Mittelstrecke", "Fernstrecke")</t>
+  </si>
+  <si>
+    <t>wetter</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("sonnig", "heiter", "bewölkt", "Niederschlag", "Gewitter", "Sturm")</t>
+  </si>
+  <si>
+    <t>autoMarke</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Audi", "BMW", "Ford", "Mercedes", "Opel", "VW", "andere")</t>
+  </si>
+  <si>
+    <t>autoAlter</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0 bis 2", "3 bis 5", "6 bis 10", "11 bis 29", "30 oder älter")</t>
+  </si>
+  <si>
+    <t>smartphoneHerst</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Apple", "Huawei", "Lenovo", "LG", "Nokia", "Samsung", "anderer")</t>
+  </si>
+  <si>
+    <t>postleitzahl</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("0xxxx", "1xxxx", "2xxxx", "3xxxx", "4xxxx", "5xxxx", "6xxxx", "7xxxx", "8xxxx", "9xxxx")</t>
+  </si>
+  <si>
+    <t>stadtLand</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("weniger als 200 Einwohner", "200 bis 1.999 Einwohner", "2.000 bis 99.999 Einwohner", "100.000 bis 999.999 Einwohner", "über 1 Mio. Einwohner")</t>
+  </si>
+  <si>
+    <t>wieoftSport</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("selten", "regelmäßig", "1-3mal pro Woche", "mehr als dreimal pro Woche")</t>
+  </si>
+  <si>
+    <t>warumSport</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("ich will fit bleiben", "ich suche die körperliche Herausforderung", "mein Arzt hat mir das verschrieben", "keine Ahnung")</t>
+  </si>
+  <si>
+    <t>teilenmitwem</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Partner", "Partner und Kinder", "Kinder", "Freunde", "Gleichgesinnte", "alleine", "andere")</t>
+  </si>
+  <si>
+    <t>freizeittyp</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Outdoor", "Gaming", "Kultur (Kino, Musik, Theater)", "Lesen", "Kinder", "Garten", "Sonstiges")</t>
+  </si>
+  <si>
+    <t>anwasglauben</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("einen Gott", "Naturgewalten", "übersinnliche Erscheinungen", "gar nichts und niemanden", "keine Ahnung")</t>
+  </si>
+  <si>
+    <t>familienleben</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("duchwegs harmonisch", "ganz in Ordnung", "leicht spannungsgelanden", "stark konfliktbehaftet")</t>
+  </si>
+  <si>
+    <t>groesse</t>
+  </si>
+  <si>
+    <t>enum </t>
+  </si>
+  <si>
+    <t>("unter 160 cm","161-1,70 cm", "171 - 180 cm", "181 - 190 cm", "über 190 cm"</t>
+  </si>
+  <si>
+    <t>gewicht</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("unter 55 kg, 56 bis 60 kg, 60 - 70 kg, 70 - 80 kg, 80 -90 kg, 90 - 100 kg, über 100 kg)</t>
+  </si>
+  <si>
+    <t>ernaehrungstype</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("vegan", "fleischlos", "ausgewogen", "fast food", "anderer Typ")</t>
+  </si>
+  <si>
+    <t>dauerPartnerschaft</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("unter 1 Jahr", "1 bis 2", "3 bis 5", "6 bis 10", "11 bis 15", "16 bis 20", "mehr als 21")</t>
+  </si>
+  <si>
+    <t>wieoftSex</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("gar nicht", "selten", "regelmäßig", "oft")</t>
+  </si>
+  <si>
+    <t>aufteilHaushalt</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("vor allem der Mann", "vor allem die Frau", "beide gemeinsam")</t>
+  </si>
+  <si>
+    <t>haftpflichtyp</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Vertreter zuhause", "im Vertreter-/Maklerbüro", "online", "Bank", "Sonstiges")</t>
+  </si>
+  <si>
+    <t>beitragversicherung</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("unter 50 Euro", "50 bis 100", "101 bis 200", "201 bis 300", "301 bis 400", "401 bis 500", "über 500")</t>
+  </si>
+  <si>
+    <t>eurohoeheschaden</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("unter 450 ", "451 bis 1000", "1001 bis 5.000", "5.001 bis 10.000", "10.001 bis 50.000", "über 50.000", schwerer Personenschaden)</t>
+  </si>
+  <si>
+    <t>smartphonebetriebssys</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Android", "iOS (Apple)", "Windows Phone", "anderes")</t>
+  </si>
+  <si>
+    <t>smartphonealter</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("unter 1 Jahr", "1 bis 2", "3 bis 5", "älter als 5 Jahre", "museumsreif")</t>
+  </si>
+  <si>
+    <t>smartphonegroess</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("klein", "mittel", "groß")</t>
+  </si>
+  <si>
+    <t>keinurlaub</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("kein Geld", "keine Zeit", "keine Ahnung")</t>
+  </si>
+  <si>
+    <t>abfragehaus</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Eigentum", "zur Miete", "WG", "Eltern/Verwandte")</t>
+  </si>
+  <si>
+    <t>haftpflichtanbieter</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>("Allianz", "Talanx", "Generali", "R+V", "AXA", "Sonstige")</t>
+  </si>
+  <si>
+    <t>ZufriedenheitID</t>
+  </si>
+  <si>
+    <t>Frage1ID</t>
+  </si>
+  <si>
+    <t>Frage2ID</t>
+  </si>
+  <si>
+    <t>Frage3ID</t>
+  </si>
+  <si>
+    <t>Frage4ID</t>
+  </si>
+  <si>
+    <t>Frage5ID</t>
+  </si>
+  <si>
+    <t>Frage6ID</t>
+  </si>
+  <si>
+    <t>Frage7ID</t>
+  </si>
+  <si>
+    <t>lebenzufriedenD1</t>
+  </si>
+  <si>
+    <t>familiewichtig</t>
+  </si>
+  <si>
+    <t>freizeitwichtig</t>
+  </si>
+  <si>
+    <t>urlaubjanein</t>
+  </si>
+  <si>
+    <t>krank1</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD4</t>
+  </si>
+  <si>
+    <t>lebenzufrieden</t>
+  </si>
+  <si>
+    <t>spontanLeben</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>zukunftLeben</t>
+  </si>
+  <si>
+    <t>sicherFinanz</t>
+  </si>
+  <si>
+    <t>abfrageBUV</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD2</t>
+  </si>
+  <si>
+    <t>statusBeschaeftigung</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>abfrageHaus</t>
+  </si>
+  <si>
+    <t>glaubebanwas</t>
+  </si>
+  <si>
+    <t>glaubensgemeinschaft</t>
+  </si>
+  <si>
+    <t>stimmung</t>
+  </si>
+  <si>
+    <t>wetter</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>postleitzahl</t>
+  </si>
+  <si>
+    <t>lebenszufriedenD5</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>stadtLand</t>
+  </si>
+  <si>
+    <t>beziehung</t>
+  </si>
+  <si>
+    <t>anzKinder</t>
+  </si>
+  <si>
+    <t>alterKinder</t>
+  </si>
+  <si>
+    <t>alterKinder2</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport1</t>
+  </si>
+  <si>
+    <t>sport_wieoft</t>
+  </si>
+  <si>
+    <t>sport_wielange</t>
+  </si>
+  <si>
+    <t>ernaehrung</t>
+  </si>
+  <si>
+    <t>sport_warum</t>
+  </si>
+  <si>
+    <t>partnerschaft</t>
+  </si>
+  <si>
+    <t>dauer_partnerschaft</t>
+  </si>
+  <si>
+    <t>wieoftsex</t>
+  </si>
+  <si>
+    <t>aufteilHaushalt</t>
+  </si>
+  <si>
+    <t>freiraum</t>
+  </si>
+  <si>
+    <t>zufBeruf</t>
+  </si>
+  <si>
+    <t>dauerBeruf</t>
+  </si>
+  <si>
+    <t>artBeruf</t>
+  </si>
+  <si>
+    <t>gehaltBeruf</t>
+  </si>
+  <si>
+    <t>euroBeruf</t>
+  </si>
+  <si>
+    <t>teilzeitBeruf</t>
+  </si>
+  <si>
+    <t>anzBeruf</t>
+  </si>
+  <si>
+    <t>zufHaftpflicht</t>
+  </si>
+  <si>
+    <t>abschlusstypHaftpflicht</t>
+  </si>
+  <si>
+    <t>euroHaftpflicht</t>
+  </si>
+  <si>
+    <t>schadengemeldet</t>
+  </si>
+  <si>
+    <t>schadenabwicklung</t>
+  </si>
+  <si>
+    <t>euroSchaden</t>
+  </si>
+  <si>
+    <t>versicherung</t>
+  </si>
+  <si>
+    <t>mitgliedversicherung</t>
+  </si>
+  <si>
+    <t>smartphoneZufrieden</t>
+  </si>
+  <si>
+    <t>smartphoneHerst</t>
+  </si>
+  <si>
+    <t>smartphoneBetriebssys</t>
+  </si>
+  <si>
+    <t>smartphoneAlter</t>
+  </si>
+  <si>
+    <t>smartphoneGroesse</t>
+  </si>
+  <si>
+    <t>zufStudium</t>
+  </si>
+  <si>
+    <t>dauerStudium</t>
+  </si>
+  <si>
+    <t>wichtigStudium</t>
+  </si>
+  <si>
+    <t>zufBank</t>
+  </si>
+  <si>
+    <t>giro</t>
+  </si>
+  <si>
+    <t>typFinanzDispo</t>
+  </si>
+  <si>
+    <t>bankberatung</t>
+  </si>
+  <si>
+    <t>zufEZ</t>
+  </si>
+  <si>
+    <t>hoeheEZ</t>
+  </si>
+  <si>
+    <t>euroEZ</t>
+  </si>
+  <si>
+    <t>aufteilEZ</t>
+  </si>
+  <si>
+    <t>versichOK_BU</t>
+  </si>
+  <si>
+    <t>hoeheOK_BU</t>
+  </si>
+  <si>
+    <t>summe_BU</t>
+  </si>
+  <si>
+    <t>auszahlung_BU</t>
+  </si>
+  <si>
     <t>staatlicheRente_BU</t>
   </si>
   <si>
-    <t>abfrageBU</t>
-  </si>
-  <si>
-    <t>("Nein")</t>
-  </si>
-  <si>
     <t>euroRente</t>
   </si>
   <si>
-    <t>Wie hoch sind ihre staatlichen Leistungen </t>
-  </si>
-  <si>
-    <t>Höhe staatliche Rente?</t>
-  </si>
-  <si>
-    <t>euroBeruf</t>
-  </si>
-  <si>
-    <t>staatlicheRente_BU</t>
-  </si>
-  <si>
-    <t>staatlicheRente_BU</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
     <t>hoeheRente</t>
   </si>
   <si>
-    <t>Ist die Höhe der Rente angemessen?</t>
-  </si>
-  <si>
-    <t>Höhe der Rente angemessen?</t>
-  </si>
-  <si>
-    <t>angemessen</t>
-  </si>
-  <si>
-    <t>staatlicheRente_BU</t>
-  </si>
-  <si>
-    <t>staatlicheRente_BU</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD1</t>
-  </si>
-  <si>
-    <t>Mein Leben entspricht in den meisten Lebensbereichen meinen Idealvorstellungen.</t>
-  </si>
-  <si>
-    <t>Ist dein Leben ideal?</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD2</t>
-  </si>
-  <si>
-    <t>Meine Lebensbedingungen sind ausgezeichnet.</t>
-  </si>
-  <si>
-    <t>Lebensbedingungen ok?</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD2</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD3</t>
-  </si>
-  <si>
-    <t>Ich bin zufrieden mit meinem Leben.</t>
-  </si>
-  <si>
-    <t>Zufrieden mit Leben?</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>keine</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD4</t>
-  </si>
-  <si>
-    <t>Bis jetzt habe ich die wichtigsten Dinge in meinem Leben erreicht.</t>
-  </si>
-  <si>
-    <t>Wichtiges erreicht?</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD5</t>
-  </si>
-  <si>
-    <t>Wenn ich mein Leben noch einmal leben könnte, würde ich kaum etwas ändern.</t>
-  </si>
-  <si>
-    <t>Noch einmal so leben?</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>lebenszufrieden</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist Du mit Deinem Leben?</t>
-  </si>
-  <si>
-    <t>Mit Leben zufrieden?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>lebenszufrieden</t>
-  </si>
-  <si>
-    <t>krank1</t>
-  </si>
-  <si>
-    <t>Wie bist Du Krankenversichert?</t>
-  </si>
-  <si>
-    <t>Krankenversichert?</t>
-  </si>
-  <si>
-    <t>gesetzlichPrivat</t>
-  </si>
-  <si>
-    <t>krank1</t>
+    <t>autoZufriedenheit</t>
+  </si>
+  <si>
+    <t>autoAlter</t>
+  </si>
+  <si>
+    <t>autoMarke</t>
+  </si>
+  <si>
+    <t>krankVL2</t>
   </si>
   <si>
     <t>krank2</t>
   </si>
   <si>
-    <t>Dein Krankenversicherungsbeitrag ist</t>
-  </si>
-  <si>
-    <t>Krankenversicherungbeitrag ok?</t>
-  </si>
-  <si>
-    <t>angemessen</t>
-  </si>
-  <si>
-    <t>krankVL2</t>
-  </si>
-  <si>
-    <t>krank1</t>
-  </si>
-  <si>
-    <t>("privat", "gesetzlich")</t>
-  </si>
-  <si>
     <t>krankVL</t>
   </si>
   <si>
-    <t>Die Vorsorgeleistungen meiner Krankenkasse sind mir</t>
-  </si>
-  <si>
-    <t>Vorsorge wichtig?</t>
-  </si>
-  <si>
-    <t>wichtig</t>
-  </si>
-  <si>
-    <t>krankVL2</t>
-  </si>
-  <si>
-    <t>krank1</t>
-  </si>
-  <si>
-    <t>("privat", "gesetzlich")</t>
-  </si>
-  <si>
-    <t>krankVL2</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist Du mit den Vorsorgeleistungen Deiner Krankenkasse?</t>
-  </si>
-  <si>
-    <t>Zufrieden mit Vorsorge?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>krankVL2</t>
-  </si>
-  <si>
-    <t>krank1</t>
-  </si>
-  <si>
-    <t>("privat", "gesetzlich")</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>Wie alt bist Du?</t>
-  </si>
-  <si>
-    <t>Alter</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>Bist du ein Mann oder eine Frau?</t>
-  </si>
-  <si>
-    <t>Mann oder Frau</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>beziehung</t>
-  </si>
-  <si>
-    <t>Wie würdest Du deinen Beziehungsstatus am ehesten beschreiben?</t>
-  </si>
-  <si>
-    <t>Beziehungsstatus</t>
-  </si>
-  <si>
-    <t>beziehungsstatus</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>urlaubjanein</t>
-  </si>
-  <si>
-    <t>Hast du schon einmal länger als 1 Woche Urlaub gemacht?</t>
-  </si>
-  <si>
-    <t>Urlaub?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>urlaubnein</t>
-  </si>
-  <si>
-    <t>Warum machst du keinen wirklichen Urlaub?</t>
-  </si>
-  <si>
-    <t>Warum kein Urlaub?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>urlaubnein</t>
-  </si>
-  <si>
-    <t>urlaubjanein</t>
-  </si>
-  <si>
-    <t>("Nein")</t>
+    <t>freizeitzufrieden</t>
+  </si>
+  <si>
+    <t>freizeittyp</t>
+  </si>
+  <si>
+    <t>freizeitmitwem</t>
   </si>
   <si>
     <t>urlaub</t>
   </si>
   <si>
-    <t>Wann war dein letzter Urlaub?</t>
-  </si>
-  <si>
-    <t>Wann letzter Urlaub?</t>
-  </si>
-  <si>
-    <t>vorMonaten</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>urlaubjanein</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
     <t>urlaub2</t>
   </si>
   <si>
-    <t>Wie oft warst Du in den letzten 12 Monaten im Urlaub?</t>
-  </si>
-  <si>
-    <t>Wie oft Urlaub?</t>
-  </si>
-  <si>
-    <t>anzUrlaub</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>("vor über einem Jahr", "vor einem Jahr", "vor einem halben Jahr", "vor wenigen Wochen", "vor Kurzem")</t>
-  </si>
-  <si>
     <t>urlaub3</t>
   </si>
   <si>
-    <t>Wie weit war der weiteste Urlaub in den letzten 12 Monaten?</t>
-  </si>
-  <si>
-    <t>Wo Urlaub?</t>
-  </si>
-  <si>
-    <t>woUrlaub</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>("vor über einem Jahr", "vor einem Jahr", "vor einem halben Jahr", "vor wenigen Wochen", "vor Kurzem")</t>
-  </si>
-  <si>
-    <t>wetter</t>
-  </si>
-  <si>
-    <t>Wie ist gerade das Wetter</t>
-  </si>
-  <si>
-    <t>Wetter</t>
-  </si>
-  <si>
-    <t>wetter</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>Hast Du ein Auto?</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>autoMarke</t>
-  </si>
-  <si>
-    <t>Was für ein Auto fährst Du?</t>
-  </si>
-  <si>
-    <t>Automarke</t>
-  </si>
-  <si>
-    <t>autoMarke</t>
-  </si>
-  <si>
-    <t>autoZufriedenheit</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>autoAlter</t>
-  </si>
-  <si>
-    <t>Wie alt ist das Auto?</t>
-  </si>
-  <si>
-    <t>Alter Auto</t>
-  </si>
-  <si>
-    <t>autoAlter</t>
-  </si>
-  <si>
-    <t>autoZufriedenheit</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>autoZufriedenheit</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist Du mit dem Auto?</t>
-  </si>
-  <si>
-    <t>Zufriedenheit mit Auto</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>autoZufriedenheit</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>Hast Du ein Smartphone?</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphoneHerst</t>
-  </si>
-  <si>
-    <t>Wer ist der Hersteller deines Smartphones?</t>
-  </si>
-  <si>
-    <t>Smartphone Hersteller</t>
-  </si>
-  <si>
-    <t>smartphoneHerst</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist Du mit Deinem Smartphone?</t>
-  </si>
-  <si>
-    <t>Smartphone Zufriedenheit</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>postleitzahl</t>
-  </si>
-  <si>
-    <t>In welchem Postleitzahlengebiet wohnst Du?</t>
-  </si>
-  <si>
-    <t>Postleitzahl</t>
-  </si>
-  <si>
-    <t>postleitzahl</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>stadtLand</t>
-  </si>
-  <si>
-    <t>Wie groß ist der Ort, in dem Du wohnst?</t>
-  </si>
-  <si>
-    <t>Größe des Wohnortes?</t>
-  </si>
-  <si>
-    <t>stadtLand</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist du mit deiner Fitness?</t>
-  </si>
-  <si>
-    <t>Fitness ok?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport1</t>
-  </si>
-  <si>
-    <t>Treibst du Sport?</t>
-  </si>
-  <si>
-    <t>Treibst du Sport?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport_wieoft</t>
-  </si>
-  <si>
-    <t>Wie oft bist du sportlich unterwegs?</t>
-  </si>
-  <si>
-    <t>Sport - wie oft?</t>
-  </si>
-  <si>
-    <t>wieoftSport</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport1</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>sport_warum</t>
-  </si>
-  <si>
-    <t>Warum treibst du Sport?</t>
-  </si>
-  <si>
-    <t>Sport - warum?</t>
-  </si>
-  <si>
-    <t>warumSport</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport1</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>freizeitwichtig</t>
-  </si>
-  <si>
-    <t>Wie wichtig ist dir Freizeit?</t>
-  </si>
-  <si>
-    <t>Ist Freizeit wichtig?</t>
-  </si>
-  <si>
-    <t>wichtig</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>freizeittyp</t>
-  </si>
-  <si>
-    <t>Welchen Begriff verbindest du am ehesten mit Freizeit?</t>
-  </si>
-  <si>
-    <t>Was ist Freizeit für dich?</t>
-  </si>
-  <si>
-    <t>freizeittyp</t>
-  </si>
-  <si>
-    <t>freizeitzufrieden</t>
-  </si>
-  <si>
-    <t>freiraum</t>
-  </si>
-  <si>
-    <t>Wie zufrieden bist du mit deinem Anteil an Freiraum?</t>
-  </si>
-  <si>
-    <t>Anteil Freiraum?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>freizeitmitwem</t>
-  </si>
-  <si>
-    <t>Mit wem verbringst du deine Freizeit am ehesten?</t>
-  </si>
-  <si>
-    <t>Mit wem teilst du Freizeit?</t>
-  </si>
-  <si>
-    <t>teilenmitwem</t>
-  </si>
-  <si>
-    <t>freizeitzufrieden</t>
-  </si>
-  <si>
-    <t>glaubensgemeinschaft</t>
-  </si>
-  <si>
-    <t>Gehörst du einer Glaubensgemeinschaft an?</t>
-  </si>
-  <si>
-    <t>Teil einer Glaubensgemeinschaft?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>glaube</t>
-  </si>
-  <si>
-    <t>glaubebanwas</t>
-  </si>
-  <si>
-    <t>Glaubst du an...?</t>
-  </si>
-  <si>
-    <t>Glaubst du an etwas/jemanden?</t>
-  </si>
-  <si>
-    <t>anwasglauben</t>
-  </si>
-  <si>
-    <t>glaube</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>Wie ist Deine Stimmung?</t>
-  </si>
-  <si>
-    <t>Stimmung?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>familiewichtig</t>
-  </si>
-  <si>
-    <t>Ist Familie für dich ein Thema?</t>
-  </si>
-  <si>
-    <t>Ist Familie ein Thema?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>Wie beschreibst du dein Familienleben?</t>
-  </si>
-  <si>
-    <t>Familienleben ok?</t>
-  </si>
-  <si>
-    <t>familienleben</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>familiewichtig</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>größe</t>
-  </si>
-  <si>
-    <t>Wie groß bist du?</t>
-  </si>
-  <si>
-    <t>Größe?</t>
-  </si>
-  <si>
-    <t>groesse</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>gewicht</t>
-  </si>
-  <si>
-    <t>Wieviel wiegst du in etwa?</t>
-  </si>
-  <si>
-    <t>Gewicht?</t>
-  </si>
-  <si>
-    <t>gewicht</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>ernährung</t>
-  </si>
-  <si>
-    <t>Wie ernährst du dich überwiegend?</t>
-  </si>
-  <si>
-    <t>Ernährung?</t>
-  </si>
-  <si>
-    <t>ernaehrungstype</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport_wielange</t>
-  </si>
-  <si>
-    <t>Wie lange treibst du schon Sport?</t>
-  </si>
-  <si>
-    <t>Sport-wie lange?</t>
-  </si>
-  <si>
-    <t>dauerBeruf</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport1</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>Bist du mit deiner Partnerschaft zufrieden?</t>
-  </si>
-  <si>
-    <t>Partnerschaft ok?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>dauer_partnerschaft</t>
-  </si>
-  <si>
-    <t>Wie lange bist du schon mit deinem Partner zusammen?</t>
-  </si>
-  <si>
-    <t>Dauer Partnerschaft?</t>
-  </si>
-  <si>
-    <t>dauerPartnerschaft</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>wieoftsex</t>
-  </si>
-  <si>
-    <t>Wie oft hattest du letzte Woche Sex?</t>
-  </si>
-  <si>
-    <t>Wie oft Sex?</t>
-  </si>
-  <si>
-    <t>wieoftSex</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>aufteilHaushalt</t>
-  </si>
-  <si>
-    <t>Wie wird die Hausarbeit aufgeteilt?</t>
-  </si>
-  <si>
-    <t>Aufteilung Hausarbeit?</t>
-  </si>
-  <si>
-    <t>aufteilHaushalt</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>zufHaftpflicht</t>
-  </si>
-  <si>
-    <t>Beurteile die Leistungen deiner Haftpflichtversicherung</t>
-  </si>
-  <si>
-    <t>Haftpflicht ok?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>Haftpflicht</t>
-  </si>
-  <si>
-    <t>abschlusstypHaftpflicht</t>
-  </si>
-  <si>
-    <t>Welchen Typ  von Haftplichtversicherung hast du abgeschlossen?</t>
-  </si>
-  <si>
-    <t>Versicherungstyp?</t>
-  </si>
-  <si>
-    <t>haftpflichtyp</t>
-  </si>
-  <si>
-    <t>Haftpflicht</t>
-  </si>
-  <si>
-    <t>euroHaftpflicht</t>
-  </si>
-  <si>
-    <t>Wie hoch ist dein Beitrag?</t>
-  </si>
-  <si>
-    <t>Beitragshöhe?</t>
-  </si>
-  <si>
-    <t>beitragversicherung</t>
-  </si>
-  <si>
-    <t>Haftpflicht</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>Hast du den Schaden gemeldet?</t>
-  </si>
-  <si>
-    <t>Schaden gemeldet?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>Haftpflicht</t>
-  </si>
-  <si>
-    <t>schadenabwicklung</t>
-  </si>
-  <si>
-    <t>Lief die Schadenabwicklung zu deiner Zufriedenheit?</t>
-  </si>
-  <si>
-    <t>Schadenabwicklung ok?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>Schadenabwicklung</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>euroSchaden</t>
-  </si>
-  <si>
-    <t>Wie hoch war der letzte Schadenfall?</t>
-  </si>
-  <si>
-    <t>Schadenhöhe?</t>
-  </si>
-  <si>
-    <t>eurohoeheschaden</t>
-  </si>
-  <si>
-    <t>Schadenabwicklung</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>versicherung</t>
-  </si>
-  <si>
-    <t>Bei welcher Versicherung bist du?</t>
-  </si>
-  <si>
-    <t>Name der Versicherung? </t>
-  </si>
-  <si>
-    <t>haftpflichtanbieter</t>
-  </si>
-  <si>
-    <t>Schadenabwicklung</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>mitgliedversicherung</t>
-  </si>
-  <si>
-    <t>Bist du noch bei dieser Versicherung?</t>
-  </si>
-  <si>
-    <t>Versicherung noch ok?</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>Schadenabwicklung</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>smartphoneBetriebssys</t>
-  </si>
-  <si>
-    <t>Welches Betriebssystem hat dein Smartphone</t>
-  </si>
-  <si>
-    <t>Betriebssystem Smartphone?</t>
-  </si>
-  <si>
-    <t>smartphonebetriebssys</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>smartphoneAlter</t>
-  </si>
-  <si>
-    <t>Wie alt ist dein Smartphone?</t>
-  </si>
-  <si>
-    <t>Alter Smartphone?</t>
-  </si>
-  <si>
-    <t>smartphonealter</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>("Ja")</t>
-  </si>
-  <si>
-    <t>smartphoneGroesse</t>
-  </si>
-  <si>
-    <t>Wie groß ist ihr Smartphone?</t>
-  </si>
-  <si>
-    <t>Größe Smartphone?</t>
-  </si>
-  <si>
-    <t>smartphonegroess</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>abfrageHaus</t>
-  </si>
-  <si>
-    <t>Wie lebst du?</t>
-  </si>
-  <si>
-    <t>Wie lebst du?</t>
-  </si>
-  <si>
-    <t>abfragehaus</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>freizeitzufrieden</t>
-  </si>
-  <si>
-    <t>Bist du mit dem, wie du deine Freizeit gestaltest, zufrieden?</t>
-  </si>
-  <si>
-    <t>Freizeit ok?</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>freizeitzufrieden</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>jaNein</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Ja", "Nein")</t>
-  </si>
-  <si>
-    <t>wichtig</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("sehr wichtig", "wichtig", "unwichtig", "sehr unwichtig")</t>
-  </si>
-  <si>
-    <t>angemessen</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("zu hoch", "angemessen", "zu niedrig")</t>
-  </si>
-  <si>
-    <t>zufrieden</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("sehr unzufrieden", "unzufrieden", "zufrieden", "sehr zufrieden")</t>
-  </si>
-  <si>
-    <t>anzKinder</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("keines", "1", "2", "3", "4 oder mehr")</t>
-  </si>
-  <si>
-    <t>alterKinder</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 2", "3 bis 5", "6 bis 11", "12 bis 17", "18 oder älter")</t>
-  </si>
-  <si>
-    <t>dauerBeruf</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 2", "3 bis 5", "6 bis 10", "11 bis 15", "16 bis 20", "mehr als 21")</t>
-  </si>
-  <si>
-    <t>teilzeitBeruf</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Vollzeit", "Teilzeit")</t>
-  </si>
-  <si>
-    <t>artBeruf</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("angestellt", "freiberuflich", "beides")</t>
-  </si>
-  <si>
-    <t>dauerStudium</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 4", "5 bis 10", "mehr als 10")</t>
-  </si>
-  <si>
-    <t>statusBeschaeftigung</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Beruf", "Studium", "Erziehungszeit", "keine Beschäftigung", "Sonstige")</t>
-  </si>
-  <si>
-    <t>euroBeruf</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 450 ", "451 bis 1000", "1000 bis 2000", "2000 bis 3000", "3000 bis 4000", "4000 -6000", "über 6000")</t>
-  </si>
-  <si>
-    <t>euroEZ</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 500", "501 bis 1000", "1001 bis 1500", "1501 bis 1800")</t>
-  </si>
-  <si>
-    <t>aufteilEZ</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Mutter", "Vater", "beide gemeinsam", "nach einander")</t>
-  </si>
-  <si>
-    <t>gesetzlichPrivat</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("gesetzlich", "privat", "gar nicht")</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("10 bis 19", "20 bis 29", "30 bis 39", "40 bis 49", "50 bis 59", "60 bis 69", "70 bis 79", "80 bis 89")</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Mann", "Frau")</t>
-  </si>
-  <si>
-    <t>beziehungsstatus</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Single", "in einer Beziehung", "verlobt", "verheiratet", "in einer offenen Beziehung", "es ist kompliziert", "getrennt", "geschieden", "verwitwet")</t>
-  </si>
-  <si>
-    <t>stimmt</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Stimme überhaupt nicht überein.", "Stimme nicht überein." , "Stimme eher nicht überein.", "Stimme weder noch überein.", "Stimme etwas überein.", "Stimme überein.", "Stimme vollkommen überein.")</t>
-  </si>
-  <si>
-    <t>giro</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("kleiner als -1000€", "-1000€ bis -100€", "-99€ bis 0€", "1€ bis 99€", "100€ bis 1000€", "mehr als 1000€")</t>
-  </si>
-  <si>
-    <t>dispo</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("weiss nicht", "0", "1€ bis 500€", "501€ bis 5000€", "mehr als 5000€")</t>
-  </si>
-  <si>
-    <t>vorMonaten</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("nie", "vor über einem Jahr", "vor einem Jahr", "vor einem halben Jahr", "vor wenigen Wochen", "vor Kurzem")</t>
-  </si>
-  <si>
-    <t>anzUrlaub</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("keinen", "1", "2", "3", "4 oder mehr")</t>
-  </si>
-  <si>
-    <t>woUrlaub</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Deutschland", "Nahstrecke", "Mittelstrecke", "Fernstrecke")</t>
-  </si>
-  <si>
-    <t>wetter</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("sonnig", "heiter", "bewölkt", "Niederschlag", "Gewitter", "Sturm")</t>
-  </si>
-  <si>
-    <t>autoMarke</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Audi", "BMW", "Ford", "Mercedes", "Opel", "VW", "andere")</t>
-  </si>
-  <si>
-    <t>autoAlter</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0 bis 2", "3 bis 5", "6 bis 10", "11 bis 29", "30 oder älter")</t>
-  </si>
-  <si>
-    <t>smartphoneHerst</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Apple", "Huawei", "Lenovo", "LG", "Nokia", "Samsung", "anderer")</t>
-  </si>
-  <si>
-    <t>postleitzahl</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("0xxxx", "1xxxx", "2xxxx", "3xxxx", "4xxxx", "5xxxx", "6xxxx", "7xxxx", "8xxxx", "9xxxx")</t>
-  </si>
-  <si>
-    <t>stadtLand</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("weniger als 200 Einwohner", "200 bis 1.999 Einwohner", "2.000 bis 99.999 Einwohner", "100.000 bis 999.999 Einwohner", "über 1 Mio. Einwohner")</t>
-  </si>
-  <si>
-    <t>wieoftSport</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("selten", "regelmäßig", "1-3mal pro Woche", "mehr als dreimal pro Woche")</t>
-  </si>
-  <si>
-    <t>warumSport</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("ich will fit bleiben", "ich suche die körperliche Herausforderung", "mein Arzt hat mir das verschrieben", "keine Ahnung")</t>
-  </si>
-  <si>
-    <t>teilenmitwem</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Partner", "Partner und Kinder", "Kinder", "Freunde", "Gleichgesinnte", "alleine", "andere")</t>
-  </si>
-  <si>
-    <t>freizeittyp</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Outdoor", "Gaming", "Kultur (Kino, Musik, Theater)", "Lesen", "Kinder", "Garten", "Sonstiges")</t>
-  </si>
-  <si>
-    <t>anwasglauben</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("einen Gott", "Naturgewalten", "übersinnliche Erscheinungen", "gar nichts und niemanden", "keine Ahnung")</t>
-  </si>
-  <si>
-    <t>familienleben</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("duchwegs harmonisch", "ganz in Ordnung", "leicht spannungsgelanden", "stark konfliktbehaftet")</t>
-  </si>
-  <si>
-    <t>groesse</t>
-  </si>
-  <si>
-    <t>enum </t>
-  </si>
-  <si>
-    <t>("unter 160 cm","161-1,70 cm", "171 - 180 cm", "181 - 190 cm", "über 190 cm"</t>
-  </si>
-  <si>
-    <t>gewicht</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("unter 55 kg, 56 bis 60 kg, 60 - 70 kg, 70 - 80 kg, 80 -90 kg, 90 - 100 kg, über 100 kg)</t>
-  </si>
-  <si>
-    <t>ernaehrungstype</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("vegan", "fleischlos", "ausgewogen", "fast food", "anderer Typ")</t>
-  </si>
-  <si>
-    <t>dauerPartnerschaft</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("unter 1 Jahr", "1 bis 2", "3 bis 5", "6 bis 10", "11 bis 15", "16 bis 20", "mehr als 21")</t>
-  </si>
-  <si>
-    <t>wieoftSex</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("gar nicht", "selten", "regelmäßig", "oft")</t>
-  </si>
-  <si>
-    <t>aufteilHaushalt</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("vor allem der Mann", "vor allem die Frau", "beide gemeinsam")</t>
-  </si>
-  <si>
-    <t>haftpflichtyp</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Vertreter zuhause", "im Vertreter-/Maklerbüro", "online", "Bank", "Sonstiges")</t>
-  </si>
-  <si>
-    <t>beitragversicherung</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("unter 50 Euro", "50 bis 100", "101 bis 200", "201 bis 300", "301 bis 400", "401 bis 500", "über 500")</t>
-  </si>
-  <si>
-    <t>eurohoeheschaden</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("unter 450 ", "451 bis 1000", "1001 bis 5.000", "5.001 bis 10.000", "10.001 bis 50.000", "über 50.000", schwerer Personenschaden)</t>
-  </si>
-  <si>
-    <t>smartphonebetriebssys</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Android", "iOS (Apple)", "Windows Phone", "anderes")</t>
-  </si>
-  <si>
-    <t>smartphonealter</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("unter 1 Jahr", "1 bis 2", "3 bis 5", "älter als 5 Jahre", "museumsreif")</t>
-  </si>
-  <si>
-    <t>smartphonegroess</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("klein", "mittel", "groß")</t>
-  </si>
-  <si>
-    <t>keinurlaub</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("kein Geld", "keine Zeit", "keine Ahnung")</t>
-  </si>
-  <si>
-    <t>abfragehaus</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Eigentum", "zur Miete", "WG", "Eltern/Verwandte")</t>
-  </si>
-  <si>
-    <t>haftpflichtanbieter</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>("Allianz", "Talanx", "Generali", "R+V", "AXA", "Sonstige")</t>
-  </si>
-  <si>
-    <t>ZufriedenheitID</t>
-  </si>
-  <si>
-    <t>Frage1ID</t>
-  </si>
-  <si>
-    <t>Frage2ID</t>
-  </si>
-  <si>
-    <t>Frage3ID</t>
-  </si>
-  <si>
-    <t>Frage4ID</t>
-  </si>
-  <si>
-    <t>Frage5ID</t>
-  </si>
-  <si>
-    <t>Frage6ID</t>
-  </si>
-  <si>
-    <t>Frage7ID</t>
-  </si>
-  <si>
-    <t>lebenzufriedenD1</t>
-  </si>
-  <si>
-    <t>familiewichtig</t>
-  </si>
-  <si>
-    <t>freizeitwichtig</t>
-  </si>
-  <si>
-    <t>urlaubjanein</t>
-  </si>
-  <si>
-    <t>krank1</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD4</t>
-  </si>
-  <si>
-    <t>lebenzufrieden</t>
-  </si>
-  <si>
-    <t>spontanLeben</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>zukunftLeben</t>
-  </si>
-  <si>
-    <t>sicherFinanz</t>
-  </si>
-  <si>
-    <t>abfrageBUV</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD2</t>
-  </si>
-  <si>
-    <t>statusBeschaeftigung</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>abfrageHaus</t>
-  </si>
-  <si>
-    <t>stimmung</t>
-  </si>
-  <si>
-    <t>wetter</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>postleitzahl</t>
-  </si>
-  <si>
-    <t>lebenszufriedenD5</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>stadtLand</t>
-  </si>
-  <si>
-    <t>beziehung</t>
-  </si>
-  <si>
-    <t>anzKinder</t>
-  </si>
-  <si>
-    <t>alterKinder</t>
-  </si>
-  <si>
-    <t>alterKinder2</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sport1</t>
-  </si>
-  <si>
-    <t>sport_wieoft</t>
-  </si>
-  <si>
-    <t>sport_wielange</t>
-  </si>
-  <si>
-    <t>ernaehrung</t>
-  </si>
-  <si>
-    <t>sport_warum</t>
-  </si>
-  <si>
-    <t>partnerschaft</t>
-  </si>
-  <si>
-    <t>dauer_partnerschaft</t>
-  </si>
-  <si>
-    <t>wieoftsex</t>
-  </si>
-  <si>
-    <t>aufteilHaushalt</t>
-  </si>
-  <si>
-    <t>freiraum</t>
-  </si>
-  <si>
-    <t>zufBeruf</t>
-  </si>
-  <si>
-    <t>dauerBeruf</t>
-  </si>
-  <si>
-    <t>artBeruf</t>
-  </si>
-  <si>
-    <t>gehaltBeruf</t>
-  </si>
-  <si>
-    <t>euroBeruf</t>
-  </si>
-  <si>
-    <t>teilzeitBeruf</t>
-  </si>
-  <si>
-    <t>anzBeruf</t>
-  </si>
-  <si>
-    <t>zufHaftpflicht</t>
-  </si>
-  <si>
-    <t>abschlusstypHaftpflicht</t>
-  </si>
-  <si>
-    <t>euroHaftpflicht</t>
-  </si>
-  <si>
-    <t>schadengemeldet</t>
-  </si>
-  <si>
-    <t>schadenabwicklung</t>
-  </si>
-  <si>
-    <t>euroSchaden</t>
-  </si>
-  <si>
-    <t>versicherung</t>
-  </si>
-  <si>
-    <t>mitgliedversicherung</t>
-  </si>
-  <si>
-    <t>smartphoneZufrieden</t>
-  </si>
-  <si>
-    <t>smartphoneHerst</t>
-  </si>
-  <si>
-    <t>smartphoneBetriebssys</t>
-  </si>
-  <si>
-    <t>smartphoneAlter</t>
-  </si>
-  <si>
-    <t>smartphoneGroesse</t>
-  </si>
-  <si>
-    <t>zufStudium</t>
-  </si>
-  <si>
-    <t>dauerStudium</t>
-  </si>
-  <si>
-    <t>wichtigStudium</t>
-  </si>
-  <si>
-    <t>zufBank</t>
-  </si>
-  <si>
-    <t>giro</t>
-  </si>
-  <si>
-    <t>typFinanzDispo</t>
-  </si>
-  <si>
-    <t>bankberatung</t>
-  </si>
-  <si>
-    <t>zufEZ</t>
-  </si>
-  <si>
-    <t>hoeheEZ</t>
-  </si>
-  <si>
-    <t>euroEZ</t>
-  </si>
-  <si>
-    <t>aufteilEZ</t>
-  </si>
-  <si>
-    <t>versichOK_BU</t>
-  </si>
-  <si>
-    <t>hoeheOK_BU</t>
-  </si>
-  <si>
-    <t>summe_BU</t>
-  </si>
-  <si>
-    <t>auszahlung_BU</t>
-  </si>
-  <si>
-    <t>staatlicheRente_BU</t>
-  </si>
-  <si>
-    <t>euroRente</t>
-  </si>
-  <si>
-    <t>hoeheRente</t>
-  </si>
-  <si>
-    <t>autoZufriedenheit</t>
-  </si>
-  <si>
-    <t>autoAlter</t>
-  </si>
-  <si>
-    <t>autoMarke</t>
-  </si>
-  <si>
-    <t>krankVL2</t>
-  </si>
-  <si>
-    <t>krank2</t>
-  </si>
-  <si>
-    <t>krankVL</t>
-  </si>
-  <si>
-    <t>freizeitzufrieden</t>
-  </si>
-  <si>
-    <t>freizeittyp</t>
-  </si>
-  <si>
-    <t>freizeitmitwem</t>
-  </si>
-  <si>
-    <t>Glaube</t>
-  </si>
-  <si>
-    <t>glaubebanwas</t>
-  </si>
-  <si>
-    <t>glaubensgemeinschaft</t>
-  </si>
-  <si>
-    <t>urlaub</t>
-  </si>
-  <si>
-    <t>urlaub2</t>
-  </si>
-  <si>
-    <t>urlaub3</t>
-  </si>
-  <si>
-    <t>urlaubnein</t>
+    <t>urlaub1</t>
   </si>
 </sst>
 </file>
@@ -3536,13 +3515,13 @@
       <c t="s" s="1" r="A34">
         <v>210</v>
       </c>
-      <c t="s" s="1" r="B34">
+      <c t="s" s="2" r="B34">
         <v>211</v>
       </c>
       <c t="s" s="2" r="C34">
         <v>212</v>
       </c>
-      <c t="s" s="1" r="D34">
+      <c t="s" s="2" r="D34">
         <v>213</v>
       </c>
       <c t="s" s="1" r="E34">
@@ -3620,7 +3599,7 @@
       <c t="s" s="3" r="C37">
         <v>233</v>
       </c>
-      <c t="s" s="1" r="D37">
+      <c t="s" s="2" r="D37">
         <v>234</v>
       </c>
       <c t="s" s="2" r="E37">
@@ -3642,7 +3621,7 @@
       <c t="s" s="3" r="C38">
         <v>238</v>
       </c>
-      <c t="s" s="1" r="D38">
+      <c t="s" s="2" r="D38">
         <v>239</v>
       </c>
       <c t="s" s="1" r="E38">
@@ -3664,7 +3643,7 @@
       <c t="s" s="3" r="C39">
         <v>243</v>
       </c>
-      <c t="s" s="1" r="D39">
+      <c t="s" s="2" r="D39">
         <v>244</v>
       </c>
       <c t="s" s="4" r="E39">
@@ -3686,7 +3665,7 @@
       <c t="s" s="3" r="C40">
         <v>248</v>
       </c>
-      <c t="s" s="1" r="D40">
+      <c t="s" s="2" r="D40">
         <v>249</v>
       </c>
       <c t="s" s="2" r="E40">
@@ -3708,7 +3687,7 @@
       <c t="s" s="3" r="C41">
         <v>253</v>
       </c>
-      <c t="s" s="1" r="D41">
+      <c t="s" s="2" r="D41">
         <v>254</v>
       </c>
       <c t="s" s="2" r="E41">
@@ -3975,80 +3954,67 @@
       <c s="2" r="F52">
         <v>150.0</v>
       </c>
-      <c t="s" s="2" r="G52">
-        <v>319</v>
-      </c>
-      <c t="s" s="2" r="H52">
-        <v>320</v>
-      </c>
+      <c s="2" r="G52"/>
     </row>
     <row customHeight="1" r="53" ht="15.0">
       <c t="s" s="2" r="A53">
+        <v>319</v>
+      </c>
+      <c t="s" s="2" r="B53">
+        <v>320</v>
+      </c>
+      <c t="s" s="2" r="C53">
         <v>321</v>
       </c>
-      <c t="s" s="2" r="B53">
+      <c t="s" s="2" r="D53">
         <v>322</v>
       </c>
-      <c t="s" s="2" r="C53">
+      <c t="s" s="2" r="E53">
         <v>323</v>
-      </c>
-      <c t="s" s="2" r="D53">
-        <v>324</v>
-      </c>
-      <c t="s" s="2" r="E53">
-        <v>325</v>
       </c>
       <c s="2" r="F53">
         <v>150.0</v>
       </c>
-      <c t="s" s="2" r="G53">
-        <v>326</v>
-      </c>
-      <c t="s" s="2" r="H53">
-        <v>327</v>
-      </c>
+      <c s="2" r="G53"/>
+      <c s="2" r="H53"/>
     </row>
     <row customHeight="1" r="54" ht="15.0">
       <c t="s" s="2" r="A54">
+        <v>324</v>
+      </c>
+      <c t="s" s="2" r="B54">
+        <v>325</v>
+      </c>
+      <c t="s" s="2" r="C54">
+        <v>326</v>
+      </c>
+      <c t="s" s="2" r="D54">
+        <v>327</v>
+      </c>
+      <c t="s" s="2" r="E54">
         <v>328</v>
-      </c>
-      <c t="s" s="2" r="B54">
-        <v>329</v>
-      </c>
-      <c t="s" s="2" r="C54">
-        <v>330</v>
-      </c>
-      <c t="s" s="2" r="D54">
-        <v>331</v>
-      </c>
-      <c t="s" s="2" r="E54">
-        <v>332</v>
       </c>
       <c s="2" r="F54">
         <v>150.0</v>
       </c>
-      <c t="s" s="2" r="G54">
-        <v>333</v>
-      </c>
-      <c t="s" s="2" r="H54">
-        <v>334</v>
-      </c>
+      <c s="2" r="G54"/>
+      <c s="2" r="H54"/>
     </row>
     <row customHeight="1" r="55" ht="15.0">
       <c t="s" s="2" r="A55">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c t="s" s="2" r="B55">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c t="s" s="2" r="C55">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c t="s" s="2" r="D55">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c t="s" s="2" r="E55">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c s="2" r="F55">
         <v>150.0</v>
@@ -4058,19 +4024,19 @@
     </row>
     <row customHeight="1" r="56" ht="15.0">
       <c t="s" s="2" r="A56">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c t="s" s="2" r="B56">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c t="s" s="2" r="C56">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c t="s" s="2" r="D56">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c t="s" s="2" r="E56">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c s="2" r="F56">
         <v>130.0</v>
@@ -4080,97 +4046,97 @@
     </row>
     <row customHeight="1" r="57" ht="15.0">
       <c t="s" s="2" r="A57">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c t="s" s="2" r="B57">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c t="s" s="2" r="C57">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c t="s" s="2" r="D57">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c t="s" s="2" r="E57">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c s="2" r="F57">
         <v>1000.0</v>
       </c>
       <c t="s" s="2" r="G57">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c t="s" s="2" r="H57">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row customHeight="1" r="58" ht="15.0">
       <c t="s" s="2" r="A58">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c t="s" s="2" r="B58">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c t="s" s="2" r="C58">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c t="s" s="2" r="D58">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c t="s" s="2" r="E58">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c s="2" r="F58">
         <v>1000.0</v>
       </c>
       <c t="s" s="2" r="G58">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c t="s" s="2" r="H58">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" r="59" ht="15.0">
       <c t="s" s="2" r="A59">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c t="s" s="2" r="B59">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c t="s" s="2" r="C59">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c t="s" s="2" r="D59">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c t="s" s="2" r="E59">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c s="2" r="F59">
         <v>1000.0</v>
       </c>
       <c t="s" s="2" r="G59">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c t="s" s="2" r="H59">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row customHeight="1" r="60" ht="15.0">
       <c t="s" s="2" r="A60">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c t="s" s="2" r="B60">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c t="s" s="2" r="C60">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c t="s" s="2" r="D60">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c t="s" s="2" r="E60">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c s="2" r="F60">
         <v>160.0</v>
@@ -4178,71 +4144,71 @@
     </row>
     <row customHeight="1" r="61" ht="15.0">
       <c t="s" s="2" r="A61">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c t="s" s="2" r="B61">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c t="s" s="2" r="C61">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c t="s" s="2" r="D61">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c t="s" s="2" r="E61">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c s="2" r="F61">
         <v>1000.0</v>
       </c>
       <c t="s" s="2" r="G61">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c t="s" s="2" r="H61">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row customHeight="1" r="62" ht="15.0">
       <c t="s" s="2" r="A62">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c t="s" s="2" r="B62">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c t="s" s="2" r="C62">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c t="s" s="2" r="D62">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c t="s" s="2" r="E62">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c s="2" r="F62">
         <v>1000.0</v>
       </c>
       <c t="s" s="2" r="G62">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c t="s" s="2" r="H62">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row customHeight="1" r="63" ht="15.0">
       <c t="s" s="2" r="A63">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c t="s" s="3" r="B63">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c t="s" s="2" r="C63">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c t="s" s="2" r="D63">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c t="s" s="2" r="E63">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c s="2" r="F63">
         <v>149.0</v>
@@ -4252,19 +4218,19 @@
     </row>
     <row customHeight="1" r="64" ht="15.0">
       <c t="s" s="2" r="A64">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c t="s" s="3" r="B64">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c t="s" s="3" r="C64">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c t="s" s="2" r="D64">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c t="s" s="2" r="E64">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c s="2" r="F64">
         <v>149.0</v>
@@ -4274,19 +4240,19 @@
     </row>
     <row customHeight="1" r="65" ht="15.0">
       <c t="s" s="3" r="A65">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c t="s" s="3" r="B65">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c t="s" s="3" r="C65">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c t="s" s="3" r="D65">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c t="s" s="3" r="E65">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c s="3" r="F65">
         <v>100.0</v>
@@ -4296,19 +4262,19 @@
     </row>
     <row customHeight="1" r="66" ht="15.0">
       <c t="s" s="3" r="A66">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c t="s" s="3" r="B66">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c t="s" s="3" r="C66">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c t="s" s="5" r="D66">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c t="s" s="3" r="E66">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c s="3" r="F66">
         <v>100.0</v>
@@ -4318,71 +4284,71 @@
     </row>
     <row customHeight="1" r="67" ht="15.0">
       <c t="s" s="3" r="A67">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c t="s" s="3" r="B67">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c t="s" s="3" r="C67">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c t="s" s="6" r="D67">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c t="s" s="3" r="E67">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c s="3" r="F67">
         <v>200.0</v>
       </c>
       <c t="s" s="3" r="G67">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c t="s" s="3" r="H67">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row customHeight="1" r="68" ht="15.0">
       <c t="s" s="3" r="A68">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c t="s" s="3" r="B68">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c t="s" s="3" r="C68">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c t="s" s="3" r="D68">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c t="s" s="3" r="E68">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c s="3" r="F68">
         <v>1000.0</v>
       </c>
       <c t="s" s="3" r="G68">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c t="s" s="3" r="H68">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row customHeight="1" r="69" ht="15.0">
       <c t="s" s="3" r="A69">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c t="s" s="3" r="B69">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c t="s" s="3" r="C69">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c t="s" s="6" r="D69">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c t="s" s="3" r="E69">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c s="3" r="F69">
         <v>100.0</v>
@@ -4392,19 +4358,19 @@
     </row>
     <row customHeight="1" r="70" ht="15.0">
       <c t="s" s="3" r="A70">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c t="s" s="3" r="B70">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c t="s" s="3" r="C70">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c t="s" s="6" r="D70">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c t="s" s="2" r="E70">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c s="3" r="F70">
         <v>150.0</v>
@@ -4414,19 +4380,19 @@
     </row>
     <row customHeight="1" r="71" ht="15.0">
       <c t="s" s="3" r="A71">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c t="s" s="3" r="B71">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c t="s" s="3" r="C71">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c t="s" s="5" r="D71">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c t="s" s="3" r="E71">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c s="3" r="F71">
         <v>100.0</v>
@@ -4436,19 +4402,19 @@
     </row>
     <row customHeight="1" r="72" ht="15.0">
       <c t="s" s="3" r="A72">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c t="s" s="3" r="B72">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c t="s" s="3" r="C72">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c t="s" s="6" r="D72">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c t="s" s="2" r="E72">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c s="3" r="F72">
         <v>1000.0</v>
@@ -4458,19 +4424,19 @@
     </row>
     <row customHeight="1" r="73" ht="15.0">
       <c t="s" s="3" r="A73">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c t="s" s="3" r="B73">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c t="s" s="3" r="C73">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c t="s" s="3" r="D73">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c t="s" s="3" r="E73">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c s="3" r="F73">
         <v>100.0</v>
@@ -4480,19 +4446,19 @@
     </row>
     <row customHeight="1" r="74" ht="15.0">
       <c t="s" s="3" r="A74">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c t="s" s="3" r="B74">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c t="s" s="3" r="C74">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c t="s" s="6" r="D74">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c t="s" s="3" r="E74">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c s="3" r="F74">
         <v>1000.0</v>
@@ -4502,19 +4468,19 @@
     </row>
     <row customHeight="1" r="75" ht="15.0">
       <c t="s" s="3" r="A75">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c t="s" s="3" r="B75">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c t="s" s="3" r="C75">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c t="s" s="3" r="D75">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c t="s" s="3" r="E75">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c s="3" r="F75">
         <v>100.0</v>
@@ -4524,19 +4490,19 @@
     </row>
     <row customHeight="1" r="76" ht="15.0">
       <c t="s" s="3" r="A76">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c t="s" s="3" r="B76">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c t="s" s="3" r="C76">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c t="s" s="3" r="D76">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c t="s" s="3" r="E76">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c s="3" r="F76">
         <v>100.0</v>
@@ -4546,45 +4512,45 @@
     </row>
     <row customHeight="1" r="77" ht="15.0">
       <c t="s" s="3" r="A77">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c t="s" s="3" r="B77">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c t="s" s="3" r="C77">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c t="s" s="3" r="D77">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c t="s" s="3" r="E77">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c s="3" r="F77">
         <v>100.0</v>
       </c>
       <c t="s" s="3" r="G77">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c t="s" s="3" r="H77">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row customHeight="1" r="78" ht="15.0">
       <c t="s" s="3" r="A78">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c t="s" s="3" r="B78">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c t="s" s="3" r="C78">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c t="s" s="3" r="D78">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c t="s" s="3" r="E78">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c s="3" r="F78">
         <v>100.0</v>
@@ -4594,19 +4560,19 @@
     </row>
     <row customHeight="1" r="79" ht="15.0">
       <c t="s" s="2" r="A79">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c t="s" s="2" r="B79">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c t="s" s="2" r="C79">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c t="s" s="2" r="D79">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c t="s" s="2" r="E79">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c s="2" r="F79">
         <v>100.0</v>
@@ -4616,19 +4582,19 @@
     </row>
     <row customHeight="1" r="80" ht="15.0">
       <c t="s" s="2" r="A80">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c t="s" s="2" r="B80">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c t="s" s="2" r="C80">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c t="s" s="2" r="D80">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c t="s" s="2" r="E80">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c s="2" r="F80">
         <v>100.0</v>
@@ -4638,45 +4604,45 @@
     </row>
     <row customHeight="1" r="81" ht="15.0">
       <c t="s" s="2" r="A81">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c t="s" s="2" r="B81">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c t="s" s="2" r="C81">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c t="s" s="2" r="D81">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c t="s" s="2" r="E81">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c s="2" r="F81">
         <v>100.0</v>
       </c>
       <c t="s" s="3" r="G81">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c t="s" s="3" r="H81">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row customHeight="1" r="82" ht="15.0">
       <c t="s" s="2" r="A82">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c t="s" s="2" r="B82">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c t="s" s="2" r="C82">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c t="s" s="2" r="D82">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c t="s" s="2" r="E82">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c s="2" r="F82">
         <v>100.0</v>
@@ -4686,19 +4652,19 @@
     </row>
     <row customHeight="1" r="83" ht="15.0">
       <c t="s" s="2" r="A83">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c t="s" s="2" r="B83">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c t="s" s="2" r="C83">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c t="s" s="2" r="D83">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c t="s" s="2" r="E83">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c s="2" r="F83">
         <v>100.0</v>
@@ -4708,19 +4674,19 @@
     </row>
     <row customHeight="1" r="84" ht="15.0">
       <c t="s" s="2" r="A84">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c t="s" s="2" r="B84">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c t="s" s="2" r="C84">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c t="s" s="2" r="D84">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c t="s" s="2" r="E84">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c s="2" r="F84">
         <v>100.0</v>
@@ -4730,19 +4696,19 @@
     </row>
     <row customHeight="1" r="85" ht="15.0">
       <c t="s" s="2" r="A85">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c t="s" s="2" r="B85">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c t="s" s="4" r="C85">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c t="s" s="2" r="D85">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c t="s" s="2" r="E85">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c s="2" r="F85">
         <v>100.0</v>
@@ -4752,19 +4718,19 @@
     </row>
     <row customHeight="1" r="86" ht="15.0">
       <c t="s" s="2" r="A86">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c t="s" s="2" r="B86">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c t="s" s="2" r="C86">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c t="s" s="2" r="D86">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c t="s" s="2" r="E86">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c s="2" r="F86">
         <v>100.0</v>
@@ -4774,19 +4740,19 @@
     </row>
     <row customHeight="1" r="87" ht="15.0">
       <c t="s" s="2" r="A87">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c t="s" s="2" r="B87">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c t="s" s="2" r="C87">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c t="s" s="7" r="D87">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c t="s" s="8" r="E87">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c s="2" r="F87">
         <v>100.0</v>
@@ -4796,19 +4762,19 @@
     </row>
     <row customHeight="1" r="88" ht="15.0">
       <c t="s" s="2" r="A88">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c t="s" s="2" r="B88">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c t="s" s="2" r="C88">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c t="s" s="7" r="D88">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c t="s" s="2" r="E88">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c s="2" r="F88">
         <v>100.0</v>
@@ -4818,19 +4784,19 @@
     </row>
     <row customHeight="1" r="89" ht="15.0">
       <c t="s" s="2" r="A89">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c t="s" s="2" r="B89">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c t="s" s="2" r="C89">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c t="s" s="7" r="D89">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c t="s" s="2" r="E89">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c s="2" r="F89">
         <v>100.0</v>
@@ -4840,175 +4806,175 @@
     </row>
     <row customHeight="1" r="90" ht="15.0">
       <c t="s" s="2" r="A90">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c t="s" s="2" r="B90">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c t="s" s="2" r="C90">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c t="s" s="2" r="D90">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c t="s" s="2" r="E90">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c s="2" r="F90">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G90">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c t="s" s="3" r="H90">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row customHeight="1" r="91" ht="15.0">
       <c t="s" s="2" r="A91">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c t="s" s="2" r="B91">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c t="s" s="2" r="C91">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c t="s" s="7" r="D91">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c t="s" s="2" r="E91">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c s="2" r="F91">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G91">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c t="s" s="3" r="H91">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row customHeight="1" r="92" ht="15.0">
       <c t="s" s="2" r="A92">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c t="s" s="2" r="B92">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c t="s" s="2" r="C92">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c t="s" s="2" r="D92">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c t="s" s="2" r="E92">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c s="2" r="F92">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G92">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c t="s" s="3" r="H92">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row customHeight="1" r="93" ht="15.0">
       <c t="s" s="2" r="A93">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c t="s" s="2" r="B93">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c t="s" s="2" r="C93">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c t="s" s="2" r="D93">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c t="s" s="2" r="E93">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c s="2" r="F93">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G93">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c t="s" s="3" r="H93">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row customHeight="1" r="94" ht="15.0">
       <c t="s" s="2" r="A94">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c t="s" s="2" r="B94">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c t="s" s="2" r="C94">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c t="s" s="2" r="D94">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c t="s" s="2" r="E94">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c s="2" r="F94">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G94">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c t="s" s="3" r="H94">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row customHeight="1" r="95" ht="15.0">
       <c t="s" s="2" r="A95">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c t="s" s="2" r="B95">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c t="s" s="2" r="C95">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c t="s" s="7" r="D95">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c t="s" s="2" r="E95">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c s="2" r="F95">
         <v>100.0</v>
       </c>
       <c t="s" s="2" r="G95">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c t="s" s="3" r="H95">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row customHeight="1" r="96" ht="15.0">
       <c t="s" s="2" r="A96">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c t="s" s="2" r="B96">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c t="s" s="2" r="C96">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c t="s" s="2" r="D96">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c t="s" s="2" r="E96">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c s="2" r="F96">
         <v>100.0</v>
@@ -5018,19 +4984,19 @@
     </row>
     <row customHeight="1" r="97" ht="15.0">
       <c t="s" s="2" r="A97">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c t="s" s="2" r="B97">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c t="s" s="2" r="C97">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c t="s" s="2" r="D97">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c t="s" s="2" r="E97">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c s="2" r="F97">
         <v>100.0</v>
@@ -5040,19 +5006,19 @@
     </row>
     <row customHeight="1" r="98" ht="15.0">
       <c t="s" s="2" r="A98">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c t="s" s="2" r="B98">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c t="s" s="2" r="C98">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c t="s" s="2" r="D98">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c t="s" s="2" r="E98">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c s="2" r="F98">
         <v>100.0</v>
@@ -14824,13 +14790,13 @@
   <sheetData>
     <row customHeight="1" r="1" ht="15.0">
       <c t="s" s="1" r="A1">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c s="1" r="D1"/>
       <c s="1" r="E1"/>
@@ -14838,13 +14804,13 @@
     </row>
     <row customHeight="1" r="2" ht="15.0">
       <c t="s" s="1" r="A2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c s="1" r="D2"/>
       <c s="1" r="E2"/>
@@ -14852,13 +14818,13 @@
     </row>
     <row customHeight="1" r="3" ht="15.0">
       <c t="s" s="1" r="A3">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c s="1" r="D3"/>
       <c s="1" r="E3"/>
@@ -14866,13 +14832,13 @@
     </row>
     <row customHeight="1" r="4" ht="15.0">
       <c t="s" s="1" r="A4">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c s="1" r="D4"/>
       <c s="1" r="E4"/>
@@ -14880,13 +14846,13 @@
     </row>
     <row customHeight="1" r="5" ht="15.0">
       <c t="s" s="1" r="A5">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c t="s" s="1" r="B5">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c s="1" r="D5"/>
       <c s="1" r="E5"/>
@@ -14894,13 +14860,13 @@
     </row>
     <row customHeight="1" r="6" ht="15.0">
       <c t="s" s="1" r="A6">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c t="s" s="1" r="B6">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c s="1" r="D6"/>
       <c s="1" r="E6"/>
@@ -14908,13 +14874,13 @@
     </row>
     <row customHeight="1" r="7" ht="15.0">
       <c t="s" s="1" r="A7">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c t="s" s="1" r="B7">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c s="1" r="D7"/>
       <c s="1" r="E7"/>
@@ -14922,13 +14888,13 @@
     </row>
     <row customHeight="1" r="8" ht="15.0">
       <c t="s" s="1" r="A8">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c t="s" s="1" r="B8">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c s="1" r="D8"/>
       <c s="1" r="E8"/>
@@ -14936,13 +14902,13 @@
     </row>
     <row customHeight="1" r="9" ht="15.0">
       <c t="s" s="1" r="A9">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c t="s" s="1" r="B9">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c s="1" r="D9"/>
       <c s="1" r="E9"/>
@@ -14950,13 +14916,13 @@
     </row>
     <row customHeight="1" r="10" ht="15.0">
       <c t="s" s="1" r="A10">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c t="s" s="1" r="B10">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c s="1" r="D10"/>
       <c s="1" r="E10"/>
@@ -14964,13 +14930,13 @@
     </row>
     <row customHeight="1" r="11" ht="15.0">
       <c t="s" s="1" r="A11">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c t="s" s="1" r="B11">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c s="1" r="D11"/>
       <c s="1" r="E11"/>
@@ -14978,13 +14944,13 @@
     </row>
     <row customHeight="1" r="12" ht="15.0">
       <c t="s" s="2" r="A12">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c t="s" s="1" r="B12">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c t="s" s="2" r="C12">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c s="1" r="D12"/>
       <c s="1" r="E12"/>
@@ -14992,13 +14958,13 @@
     </row>
     <row customHeight="1" r="13" ht="15.0">
       <c t="s" s="1" r="A13">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c t="s" s="1" r="B13">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c s="1" r="D13"/>
       <c s="1" r="E13"/>
@@ -15006,13 +14972,13 @@
     </row>
     <row customHeight="1" r="14" ht="15.0">
       <c t="s" s="1" r="A14">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c t="s" s="1" r="B14">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c s="1" r="D14"/>
       <c s="1" r="E14"/>
@@ -15020,13 +14986,13 @@
     </row>
     <row customHeight="1" r="15" ht="15.0">
       <c t="s" s="1" r="A15">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c t="s" s="1" r="B15">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c t="s" s="2" r="C15">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c s="1" r="D15"/>
       <c s="1" r="E15"/>
@@ -15034,13 +15000,13 @@
     </row>
     <row customHeight="1" r="16" ht="15.0">
       <c t="s" s="1" r="A16">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c t="s" s="1" r="B16">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c s="1" r="D16"/>
       <c s="1" r="E16"/>
@@ -15048,13 +15014,13 @@
     </row>
     <row customHeight="1" r="17" ht="15.0">
       <c t="s" s="1" r="A17">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c t="s" s="1" r="B17">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c s="1" r="D17"/>
       <c s="1" r="E17"/>
@@ -15062,13 +15028,13 @@
     </row>
     <row customHeight="1" r="18" ht="15.0">
       <c t="s" s="1" r="A18">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c t="s" s="1" r="B18">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c s="1" r="D18"/>
       <c s="1" r="E18"/>
@@ -15076,13 +15042,13 @@
     </row>
     <row customHeight="1" r="19" ht="15.0">
       <c t="s" s="1" r="A19">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c t="s" s="1" r="B19">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c s="1" r="D19"/>
       <c s="1" r="E19"/>
@@ -15090,13 +15056,13 @@
     </row>
     <row customHeight="1" r="20" ht="15.0">
       <c t="s" s="1" r="A20">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c t="s" s="1" r="B20">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c s="1" r="D20"/>
       <c s="1" r="E20"/>
@@ -15104,13 +15070,13 @@
     </row>
     <row customHeight="1" r="21" ht="15.0">
       <c t="s" s="2" r="A21">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c t="s" s="2" r="B21">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c t="s" s="2" r="C21">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c s="1" r="D21"/>
       <c s="1" r="E21"/>
@@ -15118,13 +15084,13 @@
     </row>
     <row customHeight="1" r="22" ht="15.0">
       <c t="s" s="2" r="A22">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c t="s" s="2" r="B22">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c t="s" s="2" r="C22">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c s="1" r="D22"/>
       <c s="1" r="E22"/>
@@ -15132,13 +15098,13 @@
     </row>
     <row customHeight="1" r="23" ht="15.0">
       <c t="s" s="2" r="A23">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c t="s" s="2" r="B23">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c t="s" s="2" r="C23">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c s="1" r="D23"/>
       <c s="1" r="E23"/>
@@ -15146,13 +15112,13 @@
     </row>
     <row customHeight="1" r="24" ht="15.0">
       <c t="s" s="2" r="A24">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c t="s" s="1" r="B24">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c t="s" s="2" r="C24">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c s="1" r="D24"/>
       <c s="1" r="E24"/>
@@ -15160,13 +15126,13 @@
     </row>
     <row customHeight="1" r="25" ht="15.0">
       <c t="s" s="2" r="A25">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c t="s" s="2" r="B25">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c t="s" s="2" r="C25">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c s="1" r="D25"/>
       <c s="1" r="E25"/>
@@ -15174,13 +15140,13 @@
     </row>
     <row customHeight="1" r="26" ht="15.0">
       <c t="s" s="3" r="A26">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c t="s" s="3" r="B26">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c t="s" s="3" r="C26">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c s="5" r="D26"/>
       <c s="5" r="E26"/>
@@ -15188,13 +15154,13 @@
     </row>
     <row customHeight="1" r="27" ht="15.0">
       <c t="s" s="2" r="A27">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c t="s" s="2" r="B27">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c t="s" s="2" r="C27">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c s="1" r="D27"/>
       <c s="1" r="E27"/>
@@ -15202,13 +15168,13 @@
     </row>
     <row customHeight="1" r="28" ht="15.0">
       <c t="s" s="2" r="A28">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c t="s" s="2" r="B28">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c t="s" s="2" r="C28">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c s="1" r="D28"/>
       <c s="1" r="E28"/>
@@ -15216,13 +15182,13 @@
     </row>
     <row customHeight="1" r="29" ht="15.0">
       <c t="s" s="2" r="A29">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c t="s" s="2" r="B29">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c t="s" s="2" r="C29">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c s="1" r="D29"/>
       <c s="1" r="E29"/>
@@ -15230,13 +15196,13 @@
     </row>
     <row customHeight="1" r="30" ht="15.0">
       <c t="s" s="2" r="A30">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c t="s" s="2" r="B30">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c t="s" s="2" r="C30">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c s="1" r="D30"/>
       <c s="1" r="E30"/>
@@ -15244,13 +15210,13 @@
     </row>
     <row customHeight="1" r="31" ht="15.0">
       <c t="s" s="2" r="A31">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c t="s" s="2" r="B31">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c t="s" s="2" r="C31">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c s="1" r="D31"/>
       <c s="1" r="E31"/>
@@ -15258,13 +15224,13 @@
     </row>
     <row customHeight="1" r="32" ht="15.0">
       <c t="s" s="3" r="A32">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c t="s" s="3" r="B32">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c t="s" s="3" r="C32">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c s="5" r="D32"/>
       <c s="5" r="E32"/>
@@ -15272,13 +15238,13 @@
     </row>
     <row customHeight="1" r="33" ht="15.0">
       <c t="s" s="3" r="A33">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c t="s" s="3" r="B33">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c t="s" s="3" r="C33">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c s="5" r="D33"/>
       <c s="5" r="E33"/>
@@ -15286,13 +15252,13 @@
     </row>
     <row customHeight="1" r="34" ht="15.0">
       <c t="s" s="3" r="A34">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c t="s" s="3" r="B34">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c t="s" s="3" r="C34">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c s="5" r="D34"/>
       <c s="1" r="E34"/>
@@ -15300,13 +15266,13 @@
     </row>
     <row customHeight="1" r="35" ht="15.0">
       <c t="s" s="3" r="A35">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c t="s" s="3" r="B35">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c t="s" s="3" r="C35">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c s="5" r="D35"/>
       <c s="1" r="E35"/>
@@ -15314,13 +15280,13 @@
     </row>
     <row customHeight="1" r="36" ht="15.0">
       <c t="s" s="3" r="A36">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c t="s" s="3" r="B36">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c t="s" s="3" r="C36">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c s="5" r="D36"/>
       <c s="5" r="E36"/>
@@ -15328,13 +15294,13 @@
     </row>
     <row customHeight="1" r="37" ht="15.0">
       <c t="s" s="3" r="A37">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c t="s" s="3" r="B37">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c t="s" s="3" r="C37">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c s="3" r="D37"/>
       <c s="3" r="E37"/>
@@ -15342,13 +15308,13 @@
     </row>
     <row customHeight="1" r="38" ht="15.0">
       <c t="s" s="2" r="A38">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c t="s" s="2" r="B38">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c t="s" s="2" r="C38">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c s="1" r="D38"/>
       <c s="1" r="E38"/>
@@ -15356,13 +15322,13 @@
     </row>
     <row customHeight="1" r="39" ht="15.0">
       <c t="s" s="2" r="A39">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c t="s" s="2" r="B39">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c t="s" s="2" r="C39">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c s="1" r="D39"/>
       <c s="1" r="E39"/>
@@ -15370,13 +15336,13 @@
     </row>
     <row customHeight="1" r="40" ht="15.0">
       <c t="s" s="2" r="A40">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c t="s" s="2" r="B40">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c t="s" s="2" r="C40">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c s="1" r="D40"/>
       <c s="1" r="E40"/>
@@ -15384,13 +15350,13 @@
     </row>
     <row customHeight="1" r="41" ht="15.0">
       <c t="s" s="2" r="A41">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c t="s" s="2" r="B41">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c t="s" s="2" r="C41">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c s="1" r="D41"/>
       <c s="1" r="E41"/>
@@ -15398,13 +15364,13 @@
     </row>
     <row customHeight="1" r="42" ht="15.0">
       <c t="s" s="2" r="A42">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c t="s" s="2" r="B42">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c t="s" s="3" r="C42">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c s="1" r="D42"/>
       <c s="1" r="E42"/>
@@ -15412,13 +15378,13 @@
     </row>
     <row customHeight="1" r="43" ht="15.0">
       <c t="s" s="2" r="A43">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c t="s" s="2" r="B43">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c t="s" s="3" r="C43">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c s="1" r="D43"/>
       <c s="1" r="E43"/>
@@ -15426,13 +15392,13 @@
     </row>
     <row customHeight="1" r="44" ht="15.0">
       <c t="s" s="2" r="A44">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c t="s" s="2" r="B44">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c t="s" s="2" r="C44">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c s="1" r="D44"/>
       <c s="1" r="E44"/>
@@ -15440,13 +15406,13 @@
     </row>
     <row customHeight="1" r="45" ht="15.0">
       <c t="s" s="2" r="A45">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c t="s" s="2" r="B45">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c t="s" s="2" r="C45">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c s="1" r="D45"/>
       <c s="1" r="E45"/>
@@ -15454,13 +15420,13 @@
     </row>
     <row customHeight="1" r="46" ht="15.0">
       <c t="s" s="2" r="A46">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c t="s" s="2" r="B46">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c t="s" s="2" r="C46">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c s="1" r="D46"/>
       <c s="1" r="E46"/>
@@ -15468,13 +15434,13 @@
     </row>
     <row customHeight="1" r="47" ht="15.0">
       <c t="s" s="2" r="A47">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c t="s" s="2" r="B47">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c t="s" s="2" r="C47">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c s="1" r="D47"/>
       <c s="1" r="E47"/>
@@ -15482,13 +15448,13 @@
     </row>
     <row customHeight="1" r="48" ht="15.0">
       <c t="s" s="2" r="A48">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c t="s" s="2" r="B48">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c t="s" s="2" r="C48">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c s="1" r="D48"/>
       <c s="1" r="E48"/>
@@ -15496,13 +15462,13 @@
     </row>
     <row customHeight="1" r="49" ht="15.0">
       <c t="s" s="2" r="A49">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c t="s" s="2" r="B49">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c t="s" s="2" r="C49">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c s="1" r="D49"/>
       <c s="1" r="E49"/>
@@ -15510,13 +15476,13 @@
     </row>
     <row customHeight="1" r="50" ht="15.0">
       <c t="s" s="2" r="A50">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c t="s" s="2" r="B50">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c t="s" s="2" r="C50">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c s="1" r="D50"/>
       <c s="1" r="E50"/>
@@ -15524,13 +15490,13 @@
     </row>
     <row customHeight="1" r="51" ht="15.0">
       <c t="s" s="2" r="A51">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c t="s" s="2" r="B51">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c t="s" s="2" r="C51">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c s="1" r="D51"/>
       <c s="1" r="E51"/>
@@ -15538,13 +15504,13 @@
     </row>
     <row customHeight="1" r="52" ht="15.0">
       <c t="s" s="2" r="A52">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c t="s" s="2" r="B52">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c t="s" s="2" r="C52">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c s="1" r="D52"/>
       <c s="1" r="E52"/>
@@ -23437,385 +23403,378 @@
   <sheetData>
     <row r="1">
       <c t="s" s="4" r="A1">
+        <v>735</v>
+      </c>
+      <c t="s" s="4" r="B1">
+        <v>736</v>
+      </c>
+      <c t="s" s="4" r="C1">
+        <v>737</v>
+      </c>
+      <c t="s" s="4" r="D1">
+        <v>738</v>
+      </c>
+      <c t="s" s="4" r="E1">
+        <v>739</v>
+      </c>
+      <c t="s" s="4" r="F1">
+        <v>740</v>
+      </c>
+      <c t="s" s="4" r="G1">
         <v>741</v>
       </c>
-      <c t="s" s="4" r="B1">
+      <c t="s" s="4" r="H1">
         <v>742</v>
-      </c>
-      <c t="s" s="4" r="C1">
-        <v>743</v>
-      </c>
-      <c t="s" s="4" r="D1">
-        <v>744</v>
-      </c>
-      <c t="s" s="4" r="E1">
-        <v>745</v>
-      </c>
-      <c t="s" s="4" r="F1">
-        <v>746</v>
-      </c>
-      <c t="s" s="4" r="G1">
-        <v>747</v>
-      </c>
-      <c t="s" s="4" r="H1">
-        <v>748</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="9" r="A2">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c t="s" s="7" r="B2">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c t="s" s="7" r="C2">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c t="s" s="7" r="D2">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c t="s" s="1" r="F2">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="4" r="A3">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c t="s" s="4" r="B3">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c t="s" s="7" r="C3">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c t="s" s="4" r="D3">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c t="s" s="4" r="E3">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="4" r="A4">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c t="s" s="9" r="B4">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c t="s" s="2" r="C4">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c t="s" s="2" r="D4">
-        <v>764</v>
+        <v>758</v>
+      </c>
+      <c t="s" s="3" r="E4">
+        <v>759</v>
+      </c>
+      <c t="s" s="3" r="F4">
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
+        <v>761</v>
+      </c>
+      <c t="s" s="9" r="B5">
+        <v>762</v>
+      </c>
+      <c t="s" s="9" r="C5">
+        <v>763</v>
+      </c>
+      <c t="s" s="9" r="D5">
+        <v>764</v>
+      </c>
+      <c t="s" s="9" r="E5">
         <v>765</v>
       </c>
-      <c t="s" s="9" r="B5">
+      <c t="s" s="1" r="F5">
         <v>766</v>
-      </c>
-      <c t="s" s="9" r="C5">
-        <v>767</v>
-      </c>
-      <c t="s" s="9" r="D5">
-        <v>768</v>
-      </c>
-      <c t="s" s="9" r="E5">
-        <v>769</v>
-      </c>
-      <c t="s" s="1" r="F5">
-        <v>770</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="9" r="A6">
+        <v>767</v>
+      </c>
+      <c t="s" s="9" r="B6">
+        <v>768</v>
+      </c>
+      <c t="s" s="9" r="C6">
+        <v>769</v>
+      </c>
+      <c t="s" s="9" r="D6">
+        <v>770</v>
+      </c>
+      <c t="s" s="10" r="E6">
         <v>771</v>
       </c>
-      <c t="s" s="9" r="B6">
+      <c t="s" s="10" r="F6">
         <v>772</v>
-      </c>
-      <c t="s" s="9" r="C6">
-        <v>773</v>
-      </c>
-      <c t="s" s="9" r="D6">
-        <v>774</v>
-      </c>
-      <c t="s" s="10" r="E6">
-        <v>775</v>
-      </c>
-      <c t="s" s="10" r="F6">
-        <v>776</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="9" r="A7">
+        <v>773</v>
+      </c>
+      <c t="s" s="9" r="B7">
+        <v>774</v>
+      </c>
+      <c t="s" s="9" r="C7">
+        <v>775</v>
+      </c>
+      <c t="s" s="4" r="D7">
+        <v>776</v>
+      </c>
+      <c t="s" s="10" r="E7">
         <v>777</v>
       </c>
-      <c t="s" s="9" r="B7">
+      <c t="s" s="10" r="F7">
         <v>778</v>
-      </c>
-      <c t="s" s="9" r="C7">
-        <v>779</v>
-      </c>
-      <c t="s" s="4" r="D7">
-        <v>780</v>
-      </c>
-      <c t="s" s="10" r="E7">
-        <v>781</v>
-      </c>
-      <c t="s" s="10" r="F7">
-        <v>782</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="9" r="A8">
+        <v>779</v>
+      </c>
+      <c t="s" s="9" r="B8">
+        <v>780</v>
+      </c>
+      <c t="s" s="11" r="C8">
+        <v>781</v>
+      </c>
+      <c t="s" s="7" r="D8">
+        <v>782</v>
+      </c>
+      <c t="s" s="7" r="E8">
         <v>783</v>
-      </c>
-      <c t="s" s="9" r="B8">
-        <v>784</v>
-      </c>
-      <c t="s" s="11" r="C8">
-        <v>785</v>
-      </c>
-      <c t="s" s="7" r="D8">
-        <v>786</v>
-      </c>
-      <c t="s" s="7" r="E8">
-        <v>787</v>
       </c>
       <c s="12" r="F8"/>
     </row>
     <row r="9">
       <c t="s" s="9" r="A9">
+        <v>784</v>
+      </c>
+      <c t="s" s="9" r="B9">
+        <v>785</v>
+      </c>
+      <c t="s" s="9" r="C9">
+        <v>786</v>
+      </c>
+      <c t="s" s="10" r="D9">
+        <v>787</v>
+      </c>
+      <c t="s" s="10" r="E9">
         <v>788</v>
       </c>
-      <c t="s" s="9" r="B9">
+      <c t="s" s="7" r="F9">
         <v>789</v>
       </c>
-      <c t="s" s="9" r="C9">
+      <c t="s" s="7" r="G9">
         <v>790</v>
-      </c>
-      <c t="s" s="10" r="D9">
-        <v>791</v>
-      </c>
-      <c t="s" s="10" r="E9">
-        <v>792</v>
-      </c>
-      <c t="s" s="7" r="F9">
-        <v>793</v>
-      </c>
-      <c t="s" s="7" r="G9">
-        <v>794</v>
       </c>
     </row>
     <row r="10">
       <c t="s" s="9" r="A10">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c t="s" s="2" r="B10">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c t="s" s="9" r="C10">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c t="s" s="9" r="D10">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c s="12" r="E10"/>
       <c s="12" r="F10"/>
     </row>
     <row r="11">
       <c t="s" s="7" r="A11">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c t="s" s="9" r="B11">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c t="s" s="2" r="C11">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c t="s" s="7" r="D11">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c s="12" r="E11"/>
       <c s="12" r="F11"/>
     </row>
     <row r="12">
       <c t="s" s="7" r="A12">
+        <v>799</v>
+      </c>
+      <c t="s" s="7" r="B12">
+        <v>800</v>
+      </c>
+      <c t="s" s="7" r="C12">
+        <v>801</v>
+      </c>
+      <c t="s" s="7" r="D12">
+        <v>802</v>
+      </c>
+      <c t="s" s="2" r="E12">
         <v>803</v>
-      </c>
-      <c t="s" s="7" r="B12">
-        <v>804</v>
-      </c>
-      <c t="s" s="7" r="C12">
-        <v>805</v>
-      </c>
-      <c t="s" s="7" r="D12">
-        <v>806</v>
-      </c>
-      <c t="s" s="2" r="E12">
-        <v>807</v>
       </c>
       <c s="13" r="F12"/>
     </row>
     <row r="13">
       <c t="s" s="14" r="A13">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c t="s" s="1" r="B13">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14">
       <c t="s" s="2" r="A14">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c t="s" s="4" r="B14">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c t="s" s="4" r="D14">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15">
       <c t="s" s="4" r="A15">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c t="s" s="1" r="B15">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c t="s" s="1" r="D15">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="1" r="A16">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c t="s" s="1" r="B16">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c t="s" s="4" r="D16">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="1" r="A17">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c t="s" s="1" r="B17">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c t="s" s="2" r="C17">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18">
       <c t="s" s="2" r="A18">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c t="s" s="2" r="B18">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c t="s" s="2" r="C18">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19">
       <c t="s" s="14" r="A19">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c t="s" s="1" r="B19">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20">
       <c t="s" s="2" r="A20">
+        <v>828</v>
+      </c>
+      <c t="s" s="3" r="B20">
+        <v>829</v>
+      </c>
+      <c t="s" s="3" r="C20">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" s="2" r="A21">
+        <v>831</v>
+      </c>
+      <c t="s" s="2" r="B21">
         <v>832</v>
       </c>
-      <c t="s" s="3" r="B20">
+      <c t="s" s="2" r="C21">
         <v>833</v>
       </c>
-      <c t="s" s="3" r="C20">
+      <c t="s" s="2" r="D21">
         <v>834</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" s="4" r="A21">
-        <v>835</v>
-      </c>
-      <c t="s" s="3" r="B21">
-        <v>836</v>
-      </c>
-      <c t="s" s="3" r="C21">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="22">
-      <c t="s" s="2" r="A22">
-        <v>838</v>
-      </c>
-      <c t="s" s="2" r="B22">
-        <v>839</v>
-      </c>
-      <c t="s" s="2" r="C22">
-        <v>840</v>
-      </c>
-    </row>
     <row r="23">
-      <c t="s" s="2" r="A23">
-        <v>841</v>
-      </c>
+      <c s="4" r="A23"/>
     </row>
     <row r="24">
       <c s="4" r="A24"/>
     </row>
     <row r="25">
-      <c s="4" r="A25"/>
+      <c s="15" r="A25"/>
     </row>
     <row r="26">
-      <c s="15" r="A26"/>
+      <c s="1" r="A26"/>
+      <c s="4" r="B26"/>
     </row>
     <row r="27">
-      <c s="1" r="A27"/>
-      <c s="4" r="B27"/>
+      <c s="4" r="A27"/>
+      <c s="9" r="B27"/>
+      <c s="2" r="C27"/>
+      <c s="2" r="D27"/>
     </row>
     <row r="28">
       <c s="4" r="A28"/>
-      <c s="9" r="B28"/>
-      <c s="2" r="C28"/>
-      <c s="2" r="D28"/>
+      <c s="4" r="B28"/>
     </row>
     <row r="29">
-      <c s="4" r="A29"/>
+      <c s="1" r="A29"/>
       <c s="4" r="B29"/>
-    </row>
-    <row r="30">
-      <c s="1" r="A30"/>
-      <c s="4" r="B30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
